--- a/risk_indicators.xlsx
+++ b/risk_indicators.xlsx
@@ -865,7 +865,7 @@
       </c>
       <c r="E7" s="11" t="n"/>
       <c r="F7" s="6" t="n">
-        <v>0.991304347826087</v>
+        <v>1</v>
       </c>
       <c r="G7" s="10" t="n">
         <v>1</v>
@@ -879,10 +879,10 @@
       </c>
       <c r="K7" s="11" t="n"/>
       <c r="L7" s="6" t="n">
-        <v>0.6185344827586207</v>
+        <v>0.1443965517241379</v>
       </c>
       <c r="M7" s="10" t="n">
-        <v>0.7607758620689655</v>
+        <v>0.2866379310344828</v>
       </c>
       <c r="N7" s="11" t="n"/>
     </row>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.303921568627451</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>18</v>
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="I9" t="n">
         <v>18</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>18</v>
@@ -1050,10 +1050,10 @@
         <v>18</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4859154929577465</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.443661971830986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>18</v>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E15" s="11" t="n"/>
       <c r="F15" s="6" t="n">
-        <v>1</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="G15" s="10" t="n">
         <v>1</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>18</v>
@@ -1188,10 +1188,10 @@
         <v>18</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1208,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>18</v>
@@ -1220,10 +1220,10 @@
         <v>18</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1241,10 +1241,10 @@
       </c>
       <c r="E18" s="9" t="n"/>
       <c r="F18" s="7" t="n">
-        <v>0.04761904761904767</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>0.04761904761904767</v>
+        <v>0</v>
       </c>
       <c r="H18" s="9" t="n"/>
       <c r="I18" s="7" t="n">
@@ -1279,10 +1279,10 @@
       </c>
       <c r="E19" s="11" t="n"/>
       <c r="F19" s="6" t="n">
-        <v>1</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="G19" s="10" t="n">
-        <v>1</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="H19" s="11" t="n"/>
       <c r="I19" s="6" t="n">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>18</v>
@@ -1326,10 +1326,10 @@
         <v>18</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>18</v>
@@ -1358,10 +1358,10 @@
         <v>18</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1379,10 +1379,10 @@
       </c>
       <c r="E22" s="9" t="n"/>
       <c r="F22" s="7" t="n">
-        <v>0.7894736842105263</v>
+        <v>0</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>0.7894736842105263</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9" t="n"/>
       <c r="I22" s="7" t="n">
@@ -1417,10 +1417,10 @@
       </c>
       <c r="E23" s="11" t="n"/>
       <c r="F23" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="11" t="n"/>
       <c r="I23" s="6" t="n">
@@ -1431,10 +1431,10 @@
       </c>
       <c r="K23" s="11" t="n"/>
       <c r="L23" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="11" t="n"/>
     </row>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>18</v>
@@ -1464,10 +1464,10 @@
         <v>18</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1484,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>18</v>
@@ -1496,10 +1496,10 @@
         <v>18</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1517,10 +1517,10 @@
       </c>
       <c r="E26" s="9" t="n"/>
       <c r="F26" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="9" t="n"/>
       <c r="I26" s="7" t="n">
@@ -1555,10 +1555,10 @@
       </c>
       <c r="E27" s="11" t="n"/>
       <c r="F27" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11" t="n"/>
       <c r="I27" s="6" t="n">
@@ -1569,10 +1569,10 @@
       </c>
       <c r="K27" s="11" t="n"/>
       <c r="L27" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="11" t="n"/>
     </row>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>18</v>
@@ -1602,10 +1602,10 @@
         <v>18</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>18</v>
@@ -1634,10 +1634,10 @@
         <v>18</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1655,10 +1655,10 @@
       </c>
       <c r="E30" s="9" t="n"/>
       <c r="F30" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="9" t="n"/>
       <c r="I30" s="7" t="n">
@@ -1693,10 +1693,10 @@
       </c>
       <c r="E31" s="11" t="n"/>
       <c r="F31" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="11" t="n"/>
       <c r="I31" s="6" t="n">
@@ -1707,10 +1707,10 @@
       </c>
       <c r="K31" s="11" t="n"/>
       <c r="L31" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="11" t="n"/>
     </row>
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>18</v>
@@ -1740,10 +1740,10 @@
         <v>18</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1760,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>18</v>
@@ -1772,10 +1772,10 @@
         <v>18</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1793,10 +1793,10 @@
       </c>
       <c r="E34" s="9" t="n"/>
       <c r="F34" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="9" t="n"/>
       <c r="I34" s="7" t="n">
@@ -1831,10 +1831,10 @@
       </c>
       <c r="E35" s="11" t="n"/>
       <c r="F35" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="11" t="n"/>
       <c r="I35" s="6" t="n">
@@ -1845,10 +1845,10 @@
       </c>
       <c r="K35" s="11" t="n"/>
       <c r="L35" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="11" t="n"/>
     </row>
@@ -1866,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>18</v>
@@ -1878,10 +1878,10 @@
         <v>18</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>18</v>
@@ -1910,10 +1910,10 @@
         <v>18</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1931,10 +1931,10 @@
       </c>
       <c r="E38" s="9" t="n"/>
       <c r="F38" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="9" t="n"/>
       <c r="I38" s="7" t="n">
@@ -1969,10 +1969,10 @@
       </c>
       <c r="E39" s="11" t="n"/>
       <c r="F39" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="11" t="n"/>
       <c r="I39" s="6" t="n">
@@ -1983,10 +1983,10 @@
       </c>
       <c r="K39" s="11" t="n"/>
       <c r="L39" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="11" t="n"/>
     </row>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>18</v>
@@ -2016,10 +2016,10 @@
         <v>18</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2036,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>18</v>
@@ -2048,10 +2048,10 @@
         <v>18</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2069,10 +2069,10 @@
       </c>
       <c r="E42" s="9" t="n"/>
       <c r="F42" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="9" t="n"/>
       <c r="I42" s="7" t="n">
@@ -2107,10 +2107,10 @@
       </c>
       <c r="E43" s="11" t="n"/>
       <c r="F43" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="11" t="n"/>
       <c r="I43" s="6" t="n">
@@ -2121,10 +2121,10 @@
       </c>
       <c r="K43" s="11" t="n"/>
       <c r="L43" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="11" t="n"/>
     </row>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2154,10 +2154,10 @@
         <v>18</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>18</v>
@@ -2186,10 +2186,10 @@
         <v>18</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2207,10 +2207,10 @@
       </c>
       <c r="E46" s="9" t="n"/>
       <c r="F46" s="7" t="n">
-        <v>0.3103448275862069</v>
+        <v>0</v>
       </c>
       <c r="G46" s="8" t="n">
-        <v>0.2413793103448276</v>
+        <v>0</v>
       </c>
       <c r="H46" s="9" t="n"/>
       <c r="I46" s="7" t="n">
@@ -2245,10 +2245,10 @@
       </c>
       <c r="E47" s="11" t="n"/>
       <c r="F47" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="11" t="n"/>
       <c r="I47" s="6" t="n">
@@ -2259,10 +2259,10 @@
       </c>
       <c r="K47" s="11" t="n"/>
       <c r="L47" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="11" t="n"/>
     </row>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>18</v>
@@ -2292,10 +2292,10 @@
         <v>18</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2312,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>18</v>
@@ -2324,10 +2324,10 @@
         <v>18</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2383,10 +2383,10 @@
       </c>
       <c r="E51" s="11" t="n"/>
       <c r="F51" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="11" t="n"/>
       <c r="I51" s="6" t="n">
@@ -2397,10 +2397,10 @@
       </c>
       <c r="K51" s="11" t="n"/>
       <c r="L51" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="11" t="n"/>
     </row>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>18</v>
@@ -2430,10 +2430,10 @@
         <v>18</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>18</v>
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="E55" s="11" t="n"/>
       <c r="F55" s="6" t="n">
-        <v>1</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="G55" s="10" t="n">
         <v>1</v>
@@ -2535,10 +2535,10 @@
       </c>
       <c r="K55" s="11" t="n"/>
       <c r="L55" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="11" t="n"/>
     </row>
@@ -2556,10 +2556,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>18</v>
@@ -2568,10 +2568,10 @@
         <v>18</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2588,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>18</v>
@@ -2600,10 +2600,10 @@
         <v>18</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="E59" s="11" t="n"/>
       <c r="F59" s="6" t="n">
-        <v>1</v>
+        <v>0.6451612903225838</v>
       </c>
       <c r="G59" s="10" t="n">
         <v>1</v>
@@ -2673,10 +2673,10 @@
       </c>
       <c r="K59" s="11" t="n"/>
       <c r="L59" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="11" t="n"/>
     </row>
@@ -2694,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>18</v>
@@ -2706,10 +2706,10 @@
         <v>18</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2726,10 +2726,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>18</v>
@@ -2738,10 +2738,10 @@
         <v>18</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="E63" s="11" t="n"/>
       <c r="F63" s="6" t="n">
-        <v>1</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="G63" s="10" t="n">
         <v>1</v>
@@ -2811,10 +2811,10 @@
       </c>
       <c r="K63" s="11" t="n"/>
       <c r="L63" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="11" t="n"/>
     </row>
@@ -2832,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>18</v>
@@ -2844,10 +2844,10 @@
         <v>18</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>18</v>
@@ -2876,10 +2876,10 @@
         <v>18</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2897,10 +2897,10 @@
       </c>
       <c r="E66" s="9" t="n"/>
       <c r="F66" s="7" t="n">
-        <v>0.1153846153846154</v>
+        <v>0</v>
       </c>
       <c r="G66" s="8" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H66" s="9" t="n"/>
       <c r="I66" s="7" t="n">
@@ -2935,10 +2935,10 @@
       </c>
       <c r="E67" s="11" t="n"/>
       <c r="F67" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="11" t="n"/>
       <c r="I67" s="6" t="n">
@@ -2949,10 +2949,10 @@
       </c>
       <c r="K67" s="11" t="n"/>
       <c r="L67" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="11" t="n"/>
     </row>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>18</v>
@@ -2982,10 +2982,10 @@
         <v>18</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3002,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>18</v>
@@ -3014,10 +3014,10 @@
         <v>18</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3035,10 +3035,10 @@
       </c>
       <c r="E70" s="9" t="n"/>
       <c r="F70" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="9" t="n"/>
       <c r="I70" s="7" t="n">
@@ -3073,10 +3073,10 @@
       </c>
       <c r="E71" s="11" t="n"/>
       <c r="F71" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" s="11" t="n"/>
       <c r="I71" s="6" t="n">
@@ -3087,10 +3087,10 @@
       </c>
       <c r="K71" s="11" t="n"/>
       <c r="L71" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" s="11" t="n"/>
     </row>
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>18</v>
@@ -3120,10 +3120,10 @@
         <v>18</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3140,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>18</v>
@@ -3152,10 +3152,10 @@
         <v>18</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3173,10 +3173,10 @@
       </c>
       <c r="E74" s="9" t="n"/>
       <c r="F74" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="9" t="n"/>
       <c r="I74" s="7" t="n">
@@ -3211,10 +3211,10 @@
       </c>
       <c r="E75" s="11" t="n"/>
       <c r="F75" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="11" t="n"/>
       <c r="I75" s="6" t="n">
@@ -3225,10 +3225,10 @@
       </c>
       <c r="K75" s="11" t="n"/>
       <c r="L75" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" s="11" t="n"/>
     </row>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>18</v>
@@ -3258,10 +3258,10 @@
         <v>18</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>18</v>
@@ -3290,10 +3290,10 @@
         <v>18</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3311,10 +3311,10 @@
       </c>
       <c r="E78" s="9" t="n"/>
       <c r="F78" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="9" t="n"/>
       <c r="I78" s="7" t="n">
@@ -3349,10 +3349,10 @@
       </c>
       <c r="E79" s="11" t="n"/>
       <c r="F79" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="11" t="n"/>
       <c r="I79" s="6" t="n">
@@ -3363,10 +3363,10 @@
       </c>
       <c r="K79" s="11" t="n"/>
       <c r="L79" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" s="11" t="n"/>
     </row>
@@ -3384,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>18</v>
@@ -3396,10 +3396,10 @@
         <v>18</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3416,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>18</v>
@@ -3428,10 +3428,10 @@
         <v>18</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3449,10 +3449,10 @@
       </c>
       <c r="E82" s="9" t="n"/>
       <c r="F82" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="9" t="n"/>
       <c r="I82" s="7" t="n">
@@ -3487,10 +3487,10 @@
       </c>
       <c r="E83" s="11" t="n"/>
       <c r="F83" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="11" t="n"/>
       <c r="I83" s="6" t="n">
@@ -3501,10 +3501,10 @@
       </c>
       <c r="K83" s="11" t="n"/>
       <c r="L83" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" s="11" t="n"/>
     </row>
@@ -3522,10 +3522,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>18</v>
@@ -3534,10 +3534,10 @@
         <v>18</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>18</v>
@@ -3566,10 +3566,10 @@
         <v>18</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3587,10 +3587,10 @@
       </c>
       <c r="E86" s="9" t="n"/>
       <c r="F86" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="9" t="n"/>
       <c r="I86" s="7" t="n">
@@ -3625,10 +3625,10 @@
       </c>
       <c r="E87" s="11" t="n"/>
       <c r="F87" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" s="11" t="n"/>
       <c r="I87" s="6" t="n">
@@ -3639,10 +3639,10 @@
       </c>
       <c r="K87" s="11" t="n"/>
       <c r="L87" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" s="11" t="n"/>
     </row>
@@ -3660,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>18</v>
@@ -3672,10 +3672,10 @@
         <v>18</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3692,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>18</v>
@@ -3704,10 +3704,10 @@
         <v>18</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3725,10 +3725,10 @@
       </c>
       <c r="E90" s="9" t="n"/>
       <c r="F90" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" s="9" t="n"/>
       <c r="I90" s="7" t="n">
@@ -3763,10 +3763,10 @@
       </c>
       <c r="E91" s="11" t="n"/>
       <c r="F91" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="11" t="n"/>
       <c r="I91" s="6" t="n">
@@ -3777,10 +3777,10 @@
       </c>
       <c r="K91" s="11" t="n"/>
       <c r="L91" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" s="11" t="n"/>
     </row>
@@ -3798,10 +3798,10 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>18</v>
@@ -3810,10 +3810,10 @@
         <v>18</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>18</v>
@@ -3842,10 +3842,10 @@
         <v>18</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3863,10 +3863,10 @@
       </c>
       <c r="E94" s="9" t="n"/>
       <c r="F94" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="9" t="n"/>
       <c r="I94" s="7" t="n">
@@ -3901,10 +3901,10 @@
       </c>
       <c r="E95" s="11" t="n"/>
       <c r="F95" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" s="11" t="n"/>
       <c r="I95" s="6" t="n">
@@ -3915,10 +3915,10 @@
       </c>
       <c r="K95" s="11" t="n"/>
       <c r="L95" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" s="11" t="n"/>
     </row>
@@ -3936,10 +3936,10 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>18</v>
@@ -3948,10 +3948,10 @@
         <v>18</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>18</v>
@@ -3980,10 +3980,10 @@
         <v>18</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4001,10 +4001,10 @@
       </c>
       <c r="E98" s="9" t="n"/>
       <c r="F98" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="9" t="n"/>
       <c r="I98" s="7" t="n">
@@ -4039,10 +4039,10 @@
       </c>
       <c r="E99" s="11" t="n"/>
       <c r="F99" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="11" t="n"/>
       <c r="I99" s="6" t="n">
@@ -4053,10 +4053,10 @@
       </c>
       <c r="K99" s="11" t="n"/>
       <c r="L99" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" s="11" t="n"/>
     </row>
@@ -4074,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>18</v>
@@ -4086,10 +4086,10 @@
         <v>18</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>18</v>
@@ -4118,10 +4118,10 @@
         <v>18</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4139,10 +4139,10 @@
       </c>
       <c r="E102" s="9" t="n"/>
       <c r="F102" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" s="9" t="n"/>
       <c r="I102" s="7" t="n">
@@ -4177,10 +4177,10 @@
       </c>
       <c r="E103" s="11" t="n"/>
       <c r="F103" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" s="11" t="n"/>
       <c r="I103" s="6" t="n">
@@ -4191,10 +4191,10 @@
       </c>
       <c r="K103" s="11" t="n"/>
       <c r="L103" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103" s="11" t="n"/>
     </row>
@@ -4212,10 +4212,10 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>18</v>
@@ -4224,10 +4224,10 @@
         <v>18</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4244,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>18</v>
@@ -4256,10 +4256,10 @@
         <v>18</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4277,10 +4277,10 @@
       </c>
       <c r="E106" s="9" t="n"/>
       <c r="F106" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="9" t="n"/>
       <c r="I106" s="7" t="n">
@@ -4329,10 +4329,10 @@
       </c>
       <c r="K107" s="11" t="n"/>
       <c r="L107" s="6" t="n">
-        <v>0</v>
+        <v>0.9341692789968652</v>
       </c>
       <c r="M107" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N107" s="11" t="n"/>
     </row>
@@ -4350,10 +4350,10 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>18</v>
@@ -4362,10 +4362,10 @@
         <v>18</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4394,10 +4394,10 @@
         <v>18</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4415,10 +4415,10 @@
       </c>
       <c r="E110" s="9" t="n"/>
       <c r="F110" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="9" t="n"/>
       <c r="I110" s="7" t="n">
@@ -4467,10 +4467,10 @@
       </c>
       <c r="K111" s="11" t="n"/>
       <c r="L111" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N111" s="11" t="n"/>
     </row>
@@ -4488,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>18</v>
@@ -4500,10 +4500,10 @@
         <v>18</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>18</v>
@@ -4532,10 +4532,10 @@
         <v>18</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4553,10 +4553,10 @@
       </c>
       <c r="E114" s="9" t="n"/>
       <c r="F114" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" s="9" t="n"/>
       <c r="I114" s="7" t="n">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="K114" s="9" t="n"/>
       <c r="L114" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" s="8" t="n">
         <v>1</v>
@@ -4605,10 +4605,10 @@
       </c>
       <c r="K115" s="11" t="n"/>
       <c r="L115" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N115" s="11" t="n"/>
     </row>
@@ -4626,10 +4626,10 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>18</v>
@@ -4638,10 +4638,10 @@
         <v>18</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4658,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>18</v>
@@ -4670,10 +4670,10 @@
         <v>18</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4691,10 +4691,10 @@
       </c>
       <c r="E118" s="9" t="n"/>
       <c r="F118" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="9" t="n"/>
       <c r="I118" s="7" t="n">
@@ -4705,10 +4705,10 @@
       </c>
       <c r="K118" s="9" t="n"/>
       <c r="L118" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" s="8" t="n">
-        <v>0.9428571428571428</v>
+        <v>1</v>
       </c>
       <c r="N118" s="9" t="n"/>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="E119" s="11" t="n"/>
       <c r="F119" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="10" t="n">
         <v>1</v>
@@ -4743,10 +4743,10 @@
       </c>
       <c r="K119" s="11" t="n"/>
       <c r="L119" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119" s="11" t="n"/>
     </row>
@@ -4764,10 +4764,10 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>18</v>
@@ -4776,10 +4776,10 @@
         <v>18</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4796,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>18</v>
@@ -4808,10 +4808,10 @@
         <v>18</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4829,10 +4829,10 @@
       </c>
       <c r="E122" s="9" t="n"/>
       <c r="F122" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" s="9" t="n"/>
       <c r="I122" s="7" t="n">
@@ -4843,10 +4843,10 @@
       </c>
       <c r="K122" s="9" t="n"/>
       <c r="L122" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122" s="9" t="n"/>
     </row>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="E123" s="11" t="n"/>
       <c r="F123" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" s="10" t="n">
         <v>1</v>
@@ -4881,10 +4881,10 @@
       </c>
       <c r="K123" s="11" t="n"/>
       <c r="L123" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123" s="11" t="n"/>
     </row>
@@ -4902,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>18</v>
@@ -4914,10 +4914,10 @@
         <v>18</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4934,10 +4934,10 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>18</v>
@@ -4946,10 +4946,10 @@
         <v>18</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4967,10 +4967,10 @@
       </c>
       <c r="E126" s="9" t="n"/>
       <c r="F126" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" s="9" t="n"/>
       <c r="I126" s="7" t="n">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="K126" s="9" t="n"/>
       <c r="L126" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" s="8" t="n">
         <v>1</v>
@@ -5005,10 +5005,10 @@
       </c>
       <c r="E127" s="11" t="n"/>
       <c r="F127" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" s="11" t="n"/>
       <c r="I127" s="6" t="n">
@@ -5019,10 +5019,10 @@
       </c>
       <c r="K127" s="11" t="n"/>
       <c r="L127" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" s="11" t="n"/>
     </row>
@@ -5040,10 +5040,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>18</v>
@@ -5052,10 +5052,10 @@
         <v>18</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -5072,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>18</v>
@@ -5084,10 +5084,10 @@
         <v>18</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5105,10 +5105,10 @@
       </c>
       <c r="E130" s="9" t="n"/>
       <c r="F130" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" s="9" t="n"/>
       <c r="I130" s="7" t="n">
@@ -5143,10 +5143,10 @@
       </c>
       <c r="E131" s="11" t="n"/>
       <c r="F131" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" s="11" t="n"/>
       <c r="I131" s="6" t="n">
@@ -5157,10 +5157,10 @@
       </c>
       <c r="K131" s="11" t="n"/>
       <c r="L131" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" s="11" t="n"/>
     </row>
@@ -5178,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>18</v>
@@ -5190,10 +5190,10 @@
         <v>18</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5210,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>18</v>
@@ -5222,10 +5222,10 @@
         <v>18</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5243,10 +5243,10 @@
       </c>
       <c r="E134" s="9" t="n"/>
       <c r="F134" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" s="9" t="n"/>
       <c r="I134" s="7" t="n">
@@ -5281,10 +5281,10 @@
       </c>
       <c r="E135" s="11" t="n"/>
       <c r="F135" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" s="11" t="n"/>
       <c r="I135" s="6" t="n">
@@ -5295,10 +5295,10 @@
       </c>
       <c r="K135" s="11" t="n"/>
       <c r="L135" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" s="11" t="n"/>
     </row>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>18</v>
@@ -5328,10 +5328,10 @@
         <v>18</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5348,10 +5348,10 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>18</v>
@@ -5360,10 +5360,10 @@
         <v>18</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5381,10 +5381,10 @@
       </c>
       <c r="E138" s="9" t="n"/>
       <c r="F138" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" s="9" t="n"/>
       <c r="I138" s="7" t="n">
@@ -5419,10 +5419,10 @@
       </c>
       <c r="E139" s="11" t="n"/>
       <c r="F139" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" s="11" t="n"/>
       <c r="I139" s="6" t="n">
@@ -5433,10 +5433,10 @@
       </c>
       <c r="K139" s="11" t="n"/>
       <c r="L139" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139" s="11" t="n"/>
     </row>
@@ -5454,10 +5454,10 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>18</v>
@@ -5466,10 +5466,10 @@
         <v>18</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -5486,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>18</v>
@@ -5498,10 +5498,10 @@
         <v>18</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5519,10 +5519,10 @@
       </c>
       <c r="E142" s="9" t="n"/>
       <c r="F142" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" s="9" t="n"/>
       <c r="I142" s="7" t="n">
@@ -5557,10 +5557,10 @@
       </c>
       <c r="E143" s="11" t="n"/>
       <c r="F143" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" s="11" t="n"/>
       <c r="I143" s="6" t="n">
@@ -5571,10 +5571,10 @@
       </c>
       <c r="K143" s="11" t="n"/>
       <c r="L143" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143" s="11" t="n"/>
     </row>
@@ -5592,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>18</v>
@@ -5604,10 +5604,10 @@
         <v>18</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5624,10 +5624,10 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>18</v>
@@ -5636,10 +5636,10 @@
         <v>18</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5657,10 +5657,10 @@
       </c>
       <c r="E146" s="9" t="n"/>
       <c r="F146" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" s="9" t="n"/>
       <c r="I146" s="7" t="n">
@@ -5695,10 +5695,10 @@
       </c>
       <c r="E147" s="11" t="n"/>
       <c r="F147" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" s="11" t="n"/>
       <c r="I147" s="6" t="n">
@@ -5709,10 +5709,10 @@
       </c>
       <c r="K147" s="11" t="n"/>
       <c r="L147" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147" s="11" t="n"/>
     </row>
@@ -5730,10 +5730,10 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>18</v>
@@ -5742,10 +5742,10 @@
         <v>18</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -5762,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>18</v>
@@ -5774,10 +5774,10 @@
         <v>18</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5795,10 +5795,10 @@
       </c>
       <c r="E150" s="9" t="n"/>
       <c r="F150" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" s="9" t="n"/>
       <c r="I150" s="7" t="n">
@@ -5833,10 +5833,10 @@
       </c>
       <c r="E151" s="11" t="n"/>
       <c r="F151" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" s="11" t="n"/>
       <c r="I151" s="6" t="n">
@@ -5847,10 +5847,10 @@
       </c>
       <c r="K151" s="11" t="n"/>
       <c r="L151" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151" s="11" t="n"/>
     </row>
@@ -5868,10 +5868,10 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>18</v>
@@ -5880,10 +5880,10 @@
         <v>18</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -5900,10 +5900,10 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>18</v>
@@ -5912,10 +5912,10 @@
         <v>18</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5933,10 +5933,10 @@
       </c>
       <c r="E154" s="9" t="n"/>
       <c r="F154" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" s="9" t="n"/>
       <c r="I154" s="7" t="n">
@@ -5971,10 +5971,10 @@
       </c>
       <c r="E155" s="11" t="n"/>
       <c r="F155" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" s="11" t="n"/>
       <c r="I155" s="6" t="n">
@@ -5985,10 +5985,10 @@
       </c>
       <c r="K155" s="11" t="n"/>
       <c r="L155" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M155" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155" s="11" t="n"/>
     </row>
@@ -6006,10 +6006,10 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>18</v>
@@ -6018,10 +6018,10 @@
         <v>18</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -6038,10 +6038,10 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>18</v>
@@ -6050,10 +6050,10 @@
         <v>18</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -6071,10 +6071,10 @@
       </c>
       <c r="E158" s="9" t="n"/>
       <c r="F158" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" s="9" t="n"/>
       <c r="I158" s="7" t="n">
@@ -6109,10 +6109,10 @@
       </c>
       <c r="E159" s="11" t="n"/>
       <c r="F159" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" s="11" t="n"/>
       <c r="I159" s="6" t="n">
@@ -6123,10 +6123,10 @@
       </c>
       <c r="K159" s="11" t="n"/>
       <c r="L159" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159" s="11" t="n"/>
     </row>
@@ -6156,10 +6156,10 @@
         <v>18</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6176,10 +6176,10 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>18</v>
@@ -6188,10 +6188,10 @@
         <v>18</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -6209,10 +6209,10 @@
       </c>
       <c r="E162" s="9" t="n"/>
       <c r="F162" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" s="9" t="n"/>
       <c r="I162" s="7" t="n">
@@ -6247,10 +6247,10 @@
       </c>
       <c r="E163" s="11" t="n"/>
       <c r="F163" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" s="11" t="n"/>
       <c r="I163" s="6" t="n">
@@ -6261,10 +6261,10 @@
       </c>
       <c r="K163" s="11" t="n"/>
       <c r="L163" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M163" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N163" s="11" t="n"/>
     </row>
@@ -6282,10 +6282,10 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>18</v>
@@ -6294,10 +6294,10 @@
         <v>18</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -6314,10 +6314,10 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>18</v>
@@ -6326,10 +6326,10 @@
         <v>18</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -6347,10 +6347,10 @@
       </c>
       <c r="E166" s="9" t="n"/>
       <c r="F166" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166" s="9" t="n"/>
       <c r="I166" s="7" t="n">

--- a/risk_indicators.xlsx
+++ b/risk_indicators.xlsx
@@ -717,31 +717,45 @@
       <c r="D3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="n"/>
+      <c r="E3" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F3" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="11" t="n"/>
+      <c r="H3" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I3" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J3" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K3" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N3" s="11" t="n"/>
-      <c r="O3" s="6" t="n"/>
-      <c r="P3" s="10" t="n"/>
-      <c r="Q3" s="11" t="n"/>
+      <c r="N3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>1.409602481263152</v>
+      </c>
+      <c r="P3" s="10" t="n">
+        <v>1.408740827253855</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>0.061</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -756,17 +770,26 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -774,7 +797,18 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="1" t="n"/>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>1.454137135489264</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.460175822425419</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.414</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -789,17 +823,26 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -807,7 +850,18 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="n"/>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>1.358486497349303</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.352364775141145</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.453</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A6" s="7" t="n"/>
@@ -822,31 +876,45 @@
       <c r="D6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="9" t="n"/>
+      <c r="E6" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="9" t="n"/>
+      <c r="H6" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I6" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K6" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="9" t="n"/>
-      <c r="O6" s="7" t="n"/>
-      <c r="P6" s="8" t="n"/>
-      <c r="Q6" s="9" t="n"/>
+      <c r="N6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>0.6740781650788813</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <v>0.6740781650788813</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
@@ -863,28 +931,36 @@
       <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="n"/>
+      <c r="E7" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="11" t="n"/>
+      <c r="H7" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J7" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K7" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" s="6" t="n">
         <v>0.1443965517241379</v>
       </c>
       <c r="M7" s="10" t="n">
         <v>0.2866379310344828</v>
       </c>
-      <c r="N7" s="11" t="n"/>
+      <c r="N7" s="11" t="n">
+        <v>0.4962406015037595</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -899,23 +975,35 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
       <c r="I8" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -931,23 +1019,35 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" t="n">
         <v>0.6153846153846154</v>
       </c>
       <c r="G9" t="n">
         <v>0.6153846153846154</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -963,28 +1063,36 @@
       <c r="D10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="9" t="n"/>
+      <c r="E10" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="9" t="n"/>
+      <c r="H10" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I10" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K10" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N10" s="9" t="n"/>
+      <c r="N10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
@@ -1001,28 +1109,36 @@
       <c r="D11" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="11" t="n"/>
+      <c r="E11" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="11" t="n"/>
+      <c r="H11" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="I11" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J11" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K11" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N11" s="11" t="n"/>
+      <c r="N11" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1037,23 +1153,35 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
       <c r="I12" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1069,23 +1197,35 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1101,28 +1241,36 @@
       <c r="D14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="9" t="n"/>
+      <c r="E14" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="9" t="n"/>
+      <c r="H14" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I14" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J14" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K14" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N14" s="9" t="n"/>
+      <c r="N14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
@@ -1139,28 +1287,36 @@
       <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="n"/>
+      <c r="E15" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F15" s="6" t="n">
         <v>0.6349206349206349</v>
       </c>
       <c r="G15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="11" t="n"/>
+      <c r="H15" s="11" t="n">
+        <v>0.3650793650793651</v>
+      </c>
       <c r="I15" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J15" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K15" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N15" s="11" t="n"/>
+      <c r="N15" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -1175,23 +1331,35 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1207,23 +1375,35 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
       <c r="I17" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1239,28 +1419,36 @@
       <c r="D18" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="9" t="n"/>
+      <c r="E18" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="9" t="n"/>
+      <c r="H18" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I18" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K18" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N18" s="9" t="n"/>
+      <c r="N18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
@@ -1277,28 +1465,36 @@
       <c r="D19" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="11" t="n"/>
+      <c r="E19" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" s="6" t="n">
         <v>0.5280898876404494</v>
       </c>
       <c r="G19" s="10" t="n">
         <v>0.4157303370786517</v>
       </c>
-      <c r="H19" s="11" t="n"/>
+      <c r="H19" s="11" t="n">
+        <v>-0.2702702702702701</v>
+      </c>
       <c r="I19" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J19" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K19" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N19" s="11" t="n"/>
+      <c r="N19" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1313,23 +1509,35 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1345,23 +1553,35 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
       <c r="I21" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1377,28 +1597,36 @@
       <c r="D22" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="9" t="n"/>
+      <c r="E22" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="9" t="n"/>
+      <c r="H22" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I22" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J22" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K22" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N22" s="9" t="n"/>
+      <c r="N22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
@@ -1415,28 +1643,36 @@
       <c r="D23" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E23" s="11" t="n"/>
+      <c r="E23" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="11" t="n"/>
+      <c r="H23" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I23" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J23" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K23" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M23" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N23" s="11" t="n"/>
+      <c r="N23" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1451,23 +1687,35 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
       <c r="I24" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1483,23 +1731,35 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
       <c r="I25" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1515,28 +1775,36 @@
       <c r="D26" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="9" t="n"/>
+      <c r="E26" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F26" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="9" t="n"/>
+      <c r="H26" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I26" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J26" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K26" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L26" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M26" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N26" s="9" t="n"/>
+      <c r="N26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
@@ -1553,28 +1821,36 @@
       <c r="D27" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="11" t="n"/>
+      <c r="E27" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="11" t="n"/>
+      <c r="H27" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I27" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J27" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K27" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N27" s="11" t="n"/>
+      <c r="N27" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -1589,23 +1865,35 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
       <c r="I28" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1621,23 +1909,35 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
       <c r="I29" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1653,28 +1953,36 @@
       <c r="D30" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E30" s="9" t="n"/>
+      <c r="E30" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="9" t="n"/>
+      <c r="H30" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I30" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J30" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K30" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L30" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M30" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N30" s="9" t="n"/>
+      <c r="N30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
@@ -1691,28 +1999,36 @@
       <c r="D31" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="n"/>
+      <c r="E31" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="11" t="n"/>
+      <c r="H31" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I31" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J31" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K31" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M31" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N31" s="11" t="n"/>
+      <c r="N31" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
@@ -1727,23 +2043,35 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
       <c r="I32" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1759,23 +2087,35 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
       <c r="I33" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1791,28 +2131,36 @@
       <c r="D34" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E34" s="9" t="n"/>
+      <c r="E34" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F34" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H34" s="9" t="n"/>
+      <c r="H34" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I34" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J34" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K34" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L34" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M34" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N34" s="9" t="n"/>
+      <c r="N34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
@@ -1829,28 +2177,36 @@
       <c r="D35" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E35" s="11" t="n"/>
+      <c r="E35" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H35" s="11" t="n"/>
+      <c r="H35" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I35" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J35" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K35" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M35" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N35" s="11" t="n"/>
+      <c r="N35" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
@@ -1865,23 +2221,35 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
       <c r="I36" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1897,23 +2265,35 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
       <c r="I37" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -1929,28 +2309,36 @@
       <c r="D38" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E38" s="9" t="n"/>
+      <c r="E38" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F38" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H38" s="9" t="n"/>
+      <c r="H38" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I38" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J38" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K38" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L38" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M38" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N38" s="9" t="n"/>
+      <c r="N38" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
@@ -1967,28 +2355,36 @@
       <c r="D39" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E39" s="11" t="n"/>
+      <c r="E39" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H39" s="11" t="n"/>
+      <c r="H39" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I39" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J39" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K39" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M39" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N39" s="11" t="n"/>
+      <c r="N39" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -2003,23 +2399,35 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
       <c r="I40" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2035,23 +2443,35 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
       <c r="I41" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2067,28 +2487,36 @@
       <c r="D42" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E42" s="9" t="n"/>
+      <c r="E42" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F42" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H42" s="9" t="n"/>
+      <c r="H42" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I42" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J42" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K42" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L42" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M42" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N42" s="9" t="n"/>
+      <c r="N42" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
@@ -2105,28 +2533,36 @@
       <c r="D43" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E43" s="11" t="n"/>
+      <c r="E43" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H43" s="11" t="n"/>
+      <c r="H43" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I43" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J43" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K43" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L43" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M43" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N43" s="11" t="n"/>
+      <c r="N43" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
@@ -2141,23 +2577,35 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
       <c r="I44" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2173,23 +2621,35 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
       <c r="I45" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2205,28 +2665,36 @@
       <c r="D46" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="n"/>
+      <c r="E46" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F46" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H46" s="9" t="n"/>
+      <c r="H46" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I46" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J46" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K46" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L46" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M46" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N46" s="9" t="n"/>
+      <c r="N46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
@@ -2243,28 +2711,36 @@
       <c r="D47" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E47" s="11" t="n"/>
+      <c r="E47" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F47" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H47" s="11" t="n"/>
+      <c r="H47" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I47" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J47" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K47" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M47" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N47" s="11" t="n"/>
+      <c r="N47" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -2279,23 +2755,35 @@
       <c r="D48" t="n">
         <v>0</v>
       </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
       <c r="I48" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2311,23 +2799,35 @@
       <c r="D49" t="n">
         <v>0</v>
       </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
       <c r="I49" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2343,28 +2843,36 @@
       <c r="D50" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E50" s="9" t="n"/>
+      <c r="E50" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F50" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H50" s="9" t="n"/>
+      <c r="H50" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I50" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J50" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K50" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L50" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M50" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N50" s="9" t="n"/>
+      <c r="N50" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
@@ -2381,28 +2889,36 @@
       <c r="D51" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E51" s="11" t="n"/>
+      <c r="E51" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F51" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H51" s="11" t="n"/>
+      <c r="H51" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I51" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J51" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K51" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M51" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N51" s="11" t="n"/>
+      <c r="N51" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -2417,23 +2933,35 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
       <c r="I52" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2449,23 +2977,35 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
       <c r="I53" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2481,28 +3021,36 @@
       <c r="D54" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E54" s="9" t="n"/>
+      <c r="E54" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F54" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H54" s="9" t="n"/>
+      <c r="H54" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I54" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J54" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K54" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L54" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M54" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N54" s="9" t="n"/>
+      <c r="N54" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="n">
@@ -2519,28 +3067,36 @@
       <c r="D55" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E55" s="11" t="n"/>
+      <c r="E55" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F55" s="6" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.4545454545454608</v>
       </c>
       <c r="G55" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="11" t="n"/>
+        <v>0.8503401360544192</v>
+      </c>
+      <c r="H55" s="11" t="n">
+        <v>0.4654545454545365</v>
+      </c>
       <c r="I55" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J55" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K55" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L55" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M55" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N55" s="11" t="n"/>
+      <c r="N55" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
@@ -2555,23 +3111,35 @@
       <c r="D56" t="n">
         <v>0</v>
       </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
       <c r="I56" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2587,23 +3155,35 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
       <c r="I57" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2619,28 +3199,36 @@
       <c r="D58" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E58" s="9" t="n"/>
+      <c r="E58" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F58" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H58" s="9" t="n"/>
+      <c r="H58" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I58" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J58" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K58" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L58" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M58" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N58" s="9" t="n"/>
+      <c r="N58" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="n">
@@ -2657,28 +3245,36 @@
       <c r="D59" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E59" s="11" t="n"/>
+      <c r="E59" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F59" s="6" t="n">
-        <v>0.6451612903225838</v>
+        <v>0.6880733944954128</v>
       </c>
       <c r="G59" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="11" t="n"/>
+      <c r="H59" s="11" t="n">
+        <v>0.3119266055045872</v>
+      </c>
       <c r="I59" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J59" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K59" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K59" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L59" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M59" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N59" s="11" t="n"/>
+      <c r="N59" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
@@ -2693,23 +3289,35 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
       <c r="I60" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2725,23 +3333,35 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
       <c r="I61" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2757,28 +3377,36 @@
       <c r="D62" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E62" s="9" t="n"/>
+      <c r="E62" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F62" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G62" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H62" s="9" t="n"/>
+      <c r="H62" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I62" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J62" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K62" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L62" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M62" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N62" s="9" t="n"/>
+      <c r="N62" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="n">
@@ -2795,28 +3423,36 @@
       <c r="D63" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E63" s="11" t="n"/>
+      <c r="E63" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F63" s="6" t="n">
-        <v>0.6065573770491803</v>
+        <v>0</v>
       </c>
       <c r="G63" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" s="11" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I63" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J63" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K63" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K63" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L63" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M63" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N63" s="11" t="n"/>
+      <c r="N63" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -2831,23 +3467,35 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
       <c r="I64" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2863,23 +3511,35 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
       <c r="I65" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -2895,28 +3555,36 @@
       <c r="D66" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E66" s="9" t="n"/>
+      <c r="E66" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F66" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G66" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H66" s="9" t="n"/>
+      <c r="H66" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I66" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J66" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K66" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L66" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M66" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N66" s="9" t="n"/>
+      <c r="N66" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="n">
@@ -2933,28 +3601,36 @@
       <c r="D67" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E67" s="11" t="n"/>
+      <c r="E67" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F67" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G67" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H67" s="11" t="n"/>
+      <c r="H67" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I67" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J67" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K67" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K67" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L67" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M67" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N67" s="11" t="n"/>
+      <c r="N67" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
@@ -2969,23 +3645,35 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
       <c r="I68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3001,23 +3689,35 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
       <c r="I69" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3033,28 +3733,36 @@
       <c r="D70" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E70" s="9" t="n"/>
+      <c r="E70" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F70" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G70" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H70" s="9" t="n"/>
+      <c r="H70" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I70" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J70" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K70" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L70" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M70" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N70" s="9" t="n"/>
+      <c r="N70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="n">
@@ -3071,28 +3779,36 @@
       <c r="D71" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E71" s="11" t="n"/>
+      <c r="E71" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F71" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G71" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H71" s="11" t="n"/>
+      <c r="H71" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I71" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J71" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K71" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L71" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M71" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N71" s="11" t="n"/>
+      <c r="N71" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
@@ -3107,23 +3823,35 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
       <c r="I72" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3139,23 +3867,35 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
       <c r="I73" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3171,28 +3911,36 @@
       <c r="D74" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E74" s="9" t="n"/>
+      <c r="E74" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F74" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G74" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H74" s="9" t="n"/>
+      <c r="H74" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I74" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J74" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K74" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L74" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M74" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N74" s="9" t="n"/>
+      <c r="N74" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="n">
@@ -3209,28 +3957,36 @@
       <c r="D75" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E75" s="11" t="n"/>
+      <c r="E75" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F75" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G75" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H75" s="11" t="n"/>
+      <c r="H75" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I75" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J75" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K75" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K75" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L75" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M75" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N75" s="11" t="n"/>
+      <c r="N75" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
@@ -3245,23 +4001,35 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
       <c r="I76" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3277,23 +4045,35 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
       <c r="I77" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3309,28 +4089,36 @@
       <c r="D78" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E78" s="9" t="n"/>
+      <c r="E78" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F78" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G78" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H78" s="9" t="n"/>
+      <c r="H78" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I78" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J78" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K78" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L78" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M78" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N78" s="9" t="n"/>
+      <c r="N78" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="6" t="n">
@@ -3347,28 +4135,36 @@
       <c r="D79" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E79" s="11" t="n"/>
+      <c r="E79" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F79" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G79" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H79" s="11" t="n"/>
+      <c r="H79" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I79" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J79" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K79" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K79" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L79" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M79" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N79" s="11" t="n"/>
+      <c r="N79" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
@@ -3383,23 +4179,35 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
       <c r="I80" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3415,23 +4223,35 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
       <c r="I81" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3447,28 +4267,36 @@
       <c r="D82" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E82" s="9" t="n"/>
+      <c r="E82" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F82" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G82" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H82" s="9" t="n"/>
+      <c r="H82" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I82" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J82" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K82" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L82" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M82" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N82" s="9" t="n"/>
+      <c r="N82" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="n">
@@ -3485,28 +4313,36 @@
       <c r="D83" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E83" s="11" t="n"/>
+      <c r="E83" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F83" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G83" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H83" s="11" t="n"/>
+      <c r="H83" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I83" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J83" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K83" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K83" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L83" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M83" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N83" s="11" t="n"/>
+      <c r="N83" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
@@ -3521,23 +4357,35 @@
       <c r="D84" t="n">
         <v>0</v>
       </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
       <c r="I84" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3553,23 +4401,35 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
       <c r="I85" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3585,28 +4445,36 @@
       <c r="D86" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E86" s="9" t="n"/>
+      <c r="E86" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F86" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G86" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H86" s="9" t="n"/>
+      <c r="H86" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I86" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J86" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K86" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K86" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L86" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M86" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N86" s="9" t="n"/>
+      <c r="N86" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="n">
@@ -3623,28 +4491,36 @@
       <c r="D87" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E87" s="11" t="n"/>
+      <c r="E87" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F87" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G87" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H87" s="11" t="n"/>
+      <c r="H87" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I87" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J87" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K87" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K87" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L87" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M87" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N87" s="11" t="n"/>
+      <c r="N87" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
@@ -3659,23 +4535,35 @@
       <c r="D88" t="n">
         <v>0</v>
       </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
       <c r="I88" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3691,23 +4579,35 @@
       <c r="D89" t="n">
         <v>0</v>
       </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
       <c r="I89" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3723,28 +4623,36 @@
       <c r="D90" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E90" s="9" t="n"/>
+      <c r="E90" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F90" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G90" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H90" s="9" t="n"/>
+      <c r="H90" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I90" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J90" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K90" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K90" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L90" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M90" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N90" s="9" t="n"/>
+      <c r="N90" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="n">
@@ -3761,28 +4669,36 @@
       <c r="D91" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E91" s="11" t="n"/>
+      <c r="E91" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F91" s="6" t="n">
-        <v>0</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="G91" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H91" s="11" t="n"/>
+      <c r="H91" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I91" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J91" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K91" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K91" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L91" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M91" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N91" s="11" t="n"/>
+      <c r="N91" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
@@ -3797,23 +4713,35 @@
       <c r="D92" t="n">
         <v>0</v>
       </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
       <c r="I92" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3829,23 +4757,35 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
       <c r="I93" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3861,28 +4801,36 @@
       <c r="D94" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E94" s="9" t="n"/>
+      <c r="E94" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F94" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G94" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H94" s="9" t="n"/>
+      <c r="H94" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I94" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J94" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K94" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L94" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M94" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N94" s="9" t="n"/>
+      <c r="N94" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="n">
@@ -3899,28 +4847,36 @@
       <c r="D95" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E95" s="11" t="n"/>
+      <c r="E95" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F95" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G95" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H95" s="11" t="n"/>
+      <c r="H95" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I95" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J95" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K95" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L95" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M95" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N95" s="11" t="n"/>
+      <c r="N95" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
@@ -3935,23 +4891,35 @@
       <c r="D96" t="n">
         <v>0</v>
       </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
       <c r="I96" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3967,23 +4935,35 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
       <c r="I97" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -3999,28 +4979,36 @@
       <c r="D98" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E98" s="9" t="n"/>
+      <c r="E98" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F98" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G98" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H98" s="9" t="n"/>
+      <c r="H98" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I98" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J98" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K98" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K98" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L98" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M98" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N98" s="9" t="n"/>
+      <c r="N98" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="n">
@@ -4037,28 +5025,36 @@
       <c r="D99" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E99" s="11" t="n"/>
+      <c r="E99" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F99" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G99" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H99" s="11" t="n"/>
+      <c r="H99" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I99" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J99" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K99" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K99" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L99" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M99" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N99" s="11" t="n"/>
+      <c r="N99" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
@@ -4073,23 +5069,35 @@
       <c r="D100" t="n">
         <v>0</v>
       </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
       <c r="I100" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4105,23 +5113,35 @@
       <c r="D101" t="n">
         <v>0</v>
       </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
       <c r="I101" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4137,28 +5157,36 @@
       <c r="D102" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E102" s="9" t="n"/>
+      <c r="E102" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F102" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G102" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H102" s="9" t="n"/>
+      <c r="H102" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I102" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J102" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K102" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K102" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L102" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M102" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N102" s="9" t="n"/>
+      <c r="N102" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
@@ -4175,28 +5203,36 @@
       <c r="D103" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E103" s="11" t="n"/>
+      <c r="E103" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F103" s="6" t="n">
-        <v>0</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="G103" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" s="11" t="n"/>
+        <v>0.323076923076923</v>
+      </c>
+      <c r="H103" s="11" t="n">
+        <v>-0.8253968253968257</v>
+      </c>
       <c r="I103" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J103" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K103" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K103" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L103" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M103" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N103" s="11" t="n"/>
+      <c r="N103" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
@@ -4211,23 +5247,35 @@
       <c r="D104" t="n">
         <v>0</v>
       </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
       <c r="I104" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4243,23 +5291,35 @@
       <c r="D105" t="n">
         <v>0</v>
       </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
       <c r="I105" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
       <c r="M105" t="n">
         <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4275,28 +5335,36 @@
       <c r="D106" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E106" s="9" t="n"/>
+      <c r="E106" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F106" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G106" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H106" s="9" t="n"/>
+      <c r="H106" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I106" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J106" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K106" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K106" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L106" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M106" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N106" s="9" t="n"/>
+      <c r="N106" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="6" t="n">
@@ -4313,28 +5381,36 @@
       <c r="D107" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E107" s="11" t="n"/>
+      <c r="E107" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F107" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H107" s="11" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I107" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J107" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K107" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K107" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L107" s="6" t="n">
-        <v>0.9341692789968652</v>
+        <v>1</v>
       </c>
       <c r="M107" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N107" s="11" t="n"/>
+      <c r="N107" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
@@ -4349,23 +5425,35 @@
       <c r="D108" t="n">
         <v>0</v>
       </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
       <c r="I108" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4381,23 +5469,35 @@
       <c r="D109" t="n">
         <v>0</v>
       </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
       <c r="F109" t="n">
-        <v>0.5384615384615384</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4413,28 +5513,36 @@
       <c r="D110" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E110" s="9" t="n"/>
+      <c r="E110" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F110" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G110" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H110" s="9" t="n"/>
+      <c r="H110" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I110" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J110" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K110" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K110" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L110" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M110" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N110" s="9" t="n"/>
+      <c r="N110" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="6" t="n">
@@ -4451,28 +5559,36 @@
       <c r="D111" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E111" s="11" t="n"/>
+      <c r="E111" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F111" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H111" s="11" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I111" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J111" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K111" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K111" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L111" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M111" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N111" s="11" t="n"/>
+      <c r="N111" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n"/>
@@ -4487,23 +5603,35 @@
       <c r="D112" t="n">
         <v>0</v>
       </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
       <c r="I112" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
       <c r="M112" t="n">
         <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4519,23 +5647,35 @@
       <c r="D113" t="n">
         <v>0</v>
       </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
       <c r="I113" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
       <c r="M113" t="n">
         <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4551,28 +5691,36 @@
       <c r="D114" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E114" s="9" t="n"/>
+      <c r="E114" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F114" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G114" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H114" s="9" t="n"/>
+      <c r="H114" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I114" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J114" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K114" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K114" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L114" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M114" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N114" s="9" t="n"/>
+      <c r="N114" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="6" t="n">
@@ -4589,28 +5737,36 @@
       <c r="D115" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E115" s="11" t="n"/>
+      <c r="E115" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F115" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" s="11" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I115" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J115" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K115" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K115" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L115" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M115" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N115" s="11" t="n"/>
+      <c r="N115" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
@@ -4625,23 +5781,35 @@
       <c r="D116" t="n">
         <v>0</v>
       </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
       <c r="I116" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
       <c r="M116" t="n">
         <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -4657,23 +5825,35 @@
       <c r="D117" t="n">
         <v>0</v>
       </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
       </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
       <c r="I117" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4689,28 +5869,36 @@
       <c r="D118" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E118" s="9" t="n"/>
+      <c r="E118" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F118" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G118" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H118" s="9" t="n"/>
+      <c r="H118" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I118" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J118" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K118" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K118" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L118" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M118" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N118" s="9" t="n"/>
+      <c r="N118" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="n">
@@ -4727,28 +5915,36 @@
       <c r="D119" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E119" s="11" t="n"/>
+      <c r="E119" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F119" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G119" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H119" s="11" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I119" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J119" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K119" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K119" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L119" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M119" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N119" s="11" t="n"/>
+      <c r="N119" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n"/>
@@ -4763,23 +5959,35 @@
       <c r="D120" t="n">
         <v>0</v>
       </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
       </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
       <c r="I120" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4795,23 +6003,35 @@
       <c r="D121" t="n">
         <v>0</v>
       </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
       <c r="I121" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4827,28 +6047,36 @@
       <c r="D122" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E122" s="9" t="n"/>
+      <c r="E122" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F122" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G122" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H122" s="9" t="n"/>
+      <c r="H122" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I122" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J122" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K122" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K122" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L122" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M122" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N122" s="9" t="n"/>
+      <c r="N122" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="n">
@@ -4865,28 +6093,36 @@
       <c r="D123" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E123" s="11" t="n"/>
+      <c r="E123" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F123" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G123" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H123" s="11" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I123" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J123" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K123" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K123" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L123" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M123" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N123" s="11" t="n"/>
+      <c r="N123" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
@@ -4901,23 +6137,35 @@
       <c r="D124" t="n">
         <v>0</v>
       </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
       <c r="I124" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
       <c r="M124" t="n">
         <v>1</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4933,23 +6181,35 @@
       <c r="D125" t="n">
         <v>0</v>
       </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
       <c r="I125" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
       <c r="M125" t="n">
         <v>1</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -4965,28 +6225,36 @@
       <c r="D126" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E126" s="9" t="n"/>
+      <c r="E126" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F126" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G126" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H126" s="9" t="n"/>
+      <c r="H126" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I126" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J126" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K126" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K126" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L126" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M126" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N126" s="9" t="n"/>
+      <c r="N126" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="n">
@@ -5003,28 +6271,36 @@
       <c r="D127" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E127" s="11" t="n"/>
+      <c r="E127" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F127" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G127" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H127" s="11" t="n"/>
+      <c r="H127" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I127" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J127" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K127" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K127" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L127" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M127" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N127" s="11" t="n"/>
+      <c r="N127" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
@@ -5039,23 +6315,35 @@
       <c r="D128" t="n">
         <v>0</v>
       </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
       <c r="I128" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
       <c r="M128" t="n">
         <v>1</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5071,23 +6359,35 @@
       <c r="D129" t="n">
         <v>0</v>
       </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
       </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
       <c r="I129" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
       <c r="M129" t="n">
         <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5103,28 +6403,36 @@
       <c r="D130" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E130" s="9" t="n"/>
+      <c r="E130" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F130" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G130" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H130" s="9" t="n"/>
+      <c r="H130" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I130" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J130" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K130" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K130" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L130" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M130" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N130" s="9" t="n"/>
+      <c r="N130" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="6" t="n">
@@ -5141,28 +6449,36 @@
       <c r="D131" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E131" s="11" t="n"/>
+      <c r="E131" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F131" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G131" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H131" s="11" t="n"/>
+      <c r="H131" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I131" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J131" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K131" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K131" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L131" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M131" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N131" s="11" t="n"/>
+      <c r="N131" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
@@ -5177,23 +6493,35 @@
       <c r="D132" t="n">
         <v>0</v>
       </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
       <c r="I132" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
       <c r="M132" t="n">
         <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5209,23 +6537,35 @@
       <c r="D133" t="n">
         <v>0</v>
       </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
       <c r="I133" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
       <c r="M133" t="n">
         <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5241,28 +6581,36 @@
       <c r="D134" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E134" s="9" t="n"/>
+      <c r="E134" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F134" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G134" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H134" s="9" t="n"/>
+      <c r="H134" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I134" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J134" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K134" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K134" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L134" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M134" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N134" s="9" t="n"/>
+      <c r="N134" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="n">
@@ -5279,28 +6627,36 @@
       <c r="D135" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E135" s="11" t="n"/>
+      <c r="E135" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F135" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="H135" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="I135" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J135" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K135" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K135" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L135" s="6" t="n">
-        <v>1</v>
+        <v>0.7210884353741497</v>
       </c>
       <c r="M135" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" s="11" t="n"/>
+        <v>0.764172335600907</v>
+      </c>
+      <c r="N135" s="11" t="n">
+        <v>0.05637982195845694</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
@@ -5315,23 +6671,35 @@
       <c r="D136" t="n">
         <v>0</v>
       </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
       </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
       <c r="I136" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
       <c r="M136" t="n">
         <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -5347,23 +6715,35 @@
       <c r="D137" t="n">
         <v>0</v>
       </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
       </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
       <c r="I137" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
       <c r="M137" t="n">
         <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5379,28 +6759,36 @@
       <c r="D138" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E138" s="9" t="n"/>
+      <c r="E138" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F138" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G138" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H138" s="9" t="n"/>
+      <c r="H138" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I138" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J138" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K138" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K138" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L138" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M138" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N138" s="9" t="n"/>
+      <c r="N138" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="n">
@@ -5417,28 +6805,36 @@
       <c r="D139" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E139" s="11" t="n"/>
+      <c r="E139" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F139" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H139" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="H139" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="I139" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J139" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K139" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K139" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L139" s="6" t="n">
-        <v>1</v>
+        <v>0.8208092485549133</v>
       </c>
       <c r="M139" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" s="11" t="n"/>
+        <v>0.8670520231213873</v>
+      </c>
+      <c r="N139" s="11" t="n">
+        <v>0.05333333333333331</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n"/>
@@ -5453,23 +6849,35 @@
       <c r="D140" t="n">
         <v>0</v>
       </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
       <c r="I140" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
       <c r="M140" t="n">
         <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5485,23 +6893,35 @@
       <c r="D141" t="n">
         <v>0</v>
       </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
       </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
       <c r="I141" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
       <c r="M141" t="n">
         <v>1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5517,28 +6937,36 @@
       <c r="D142" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E142" s="9" t="n"/>
+      <c r="E142" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F142" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G142" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H142" s="9" t="n"/>
+      <c r="H142" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I142" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J142" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K142" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K142" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L142" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M142" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N142" s="9" t="n"/>
+      <c r="N142" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="n">
@@ -5555,28 +6983,36 @@
       <c r="D143" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E143" s="11" t="n"/>
+      <c r="E143" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F143" s="6" t="n">
-        <v>0</v>
+        <v>0.7009345794392523</v>
       </c>
       <c r="G143" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H143" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="H143" s="11" t="n">
+        <v>0.2990654205607477</v>
+      </c>
       <c r="I143" s="6" t="n">
-        <v>18</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="J143" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K143" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K143" s="11" t="n">
+        <v>0.05555555555555558</v>
+      </c>
       <c r="L143" s="6" t="n">
-        <v>1</v>
+        <v>0.7662082514734774</v>
       </c>
       <c r="M143" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" s="11" t="n"/>
+        <v>0.7544204322200393</v>
+      </c>
+      <c r="N143" s="11" t="n">
+        <v>-0.01562499999999996</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n"/>
@@ -5591,23 +7027,35 @@
       <c r="D144" t="n">
         <v>0</v>
       </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
       </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
       <c r="I144" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
       <c r="M144" t="n">
         <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -5623,23 +7071,35 @@
       <c r="D145" t="n">
         <v>0</v>
       </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
       </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
       <c r="I145" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
       <c r="M145" t="n">
         <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5655,28 +7115,36 @@
       <c r="D146" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E146" s="9" t="n"/>
+      <c r="E146" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F146" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G146" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H146" s="9" t="n"/>
+      <c r="H146" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I146" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J146" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K146" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K146" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L146" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M146" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N146" s="9" t="n"/>
+      <c r="N146" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="n">
@@ -5693,28 +7161,36 @@
       <c r="D147" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E147" s="11" t="n"/>
+      <c r="E147" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F147" s="6" t="n">
-        <v>0</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="G147" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H147" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="H147" s="11" t="n">
+        <v>0.3414634146341463</v>
+      </c>
       <c r="I147" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J147" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K147" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K147" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L147" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M147" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" s="11" t="n"/>
+        <v>0.9130850047755492</v>
+      </c>
+      <c r="N147" s="11" t="n">
+        <v>-0.09518828451882842</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n"/>
@@ -5729,23 +7205,35 @@
       <c r="D148" t="n">
         <v>0</v>
       </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
       </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
       <c r="I148" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
       <c r="M148" t="n">
         <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -5761,23 +7249,35 @@
       <c r="D149" t="n">
         <v>0</v>
       </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
       <c r="I149" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
       <c r="M149" t="n">
         <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5793,28 +7293,36 @@
       <c r="D150" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E150" s="9" t="n"/>
+      <c r="E150" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F150" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G150" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H150" s="9" t="n"/>
+      <c r="H150" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I150" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J150" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K150" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K150" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L150" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M150" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N150" s="9" t="n"/>
+      <c r="N150" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="n">
@@ -5831,28 +7339,36 @@
       <c r="D151" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E151" s="11" t="n"/>
+      <c r="E151" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F151" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G151" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="H151" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I151" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J151" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K151" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K151" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L151" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M151" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N151" s="11" t="n"/>
+      <c r="N151" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n"/>
@@ -5867,23 +7383,35 @@
       <c r="D152" t="n">
         <v>0</v>
       </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
       </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
       <c r="I152" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
       <c r="M152" t="n">
         <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -5899,23 +7427,35 @@
       <c r="D153" t="n">
         <v>0</v>
       </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
       </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
       <c r="I153" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
       <c r="M153" t="n">
         <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -5931,28 +7471,36 @@
       <c r="D154" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E154" s="9" t="n"/>
+      <c r="E154" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F154" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G154" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H154" s="9" t="n"/>
+      <c r="H154" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I154" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J154" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K154" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K154" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L154" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M154" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N154" s="9" t="n"/>
+      <c r="N154" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="6" t="n">
@@ -5969,28 +7517,36 @@
       <c r="D155" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E155" s="11" t="n"/>
+      <c r="E155" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F155" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G155" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H155" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="H155" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I155" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J155" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K155" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K155" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L155" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M155" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N155" s="11" t="n"/>
+      <c r="N155" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n"/>
@@ -6005,23 +7561,35 @@
       <c r="D156" t="n">
         <v>0</v>
       </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
       <c r="I156" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
       <c r="M156" t="n">
         <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -6037,23 +7605,35 @@
       <c r="D157" t="n">
         <v>0</v>
       </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
       </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
       <c r="I157" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
       <c r="M157" t="n">
         <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -6069,28 +7649,36 @@
       <c r="D158" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E158" s="9" t="n"/>
+      <c r="E158" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F158" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G158" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H158" s="9" t="n"/>
+      <c r="H158" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I158" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J158" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K158" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K158" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L158" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M158" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N158" s="9" t="n"/>
+      <c r="N158" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="n">
@@ -6107,28 +7695,36 @@
       <c r="D159" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E159" s="11" t="n"/>
+      <c r="E159" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F159" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G159" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H159" s="11" t="n"/>
+      <c r="H159" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I159" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J159" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K159" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K159" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L159" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M159" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N159" s="11" t="n"/>
+      <c r="N159" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n"/>
@@ -6143,23 +7739,35 @@
       <c r="D160" t="n">
         <v>0</v>
       </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
         <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
       <c r="M160" t="n">
         <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6175,23 +7783,35 @@
       <c r="D161" t="n">
         <v>0</v>
       </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
       </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
       <c r="I161" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
       <c r="M161" t="n">
         <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -6207,28 +7827,36 @@
       <c r="D162" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E162" s="9" t="n"/>
+      <c r="E162" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F162" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G162" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H162" s="9" t="n"/>
+      <c r="H162" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I162" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J162" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K162" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K162" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L162" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M162" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N162" s="9" t="n"/>
+      <c r="N162" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="6" t="n">
@@ -6245,28 +7873,36 @@
       <c r="D163" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E163" s="11" t="n"/>
+      <c r="E163" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F163" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G163" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H163" s="11" t="n"/>
+      <c r="H163" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I163" s="6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J163" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K163" s="11" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K163" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="L163" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M163" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N163" s="11" t="n"/>
+      <c r="N163" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n"/>
@@ -6281,23 +7917,35 @@
       <c r="D164" t="n">
         <v>0</v>
       </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
       </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
       <c r="I164" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
       <c r="M164" t="n">
         <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -6313,23 +7961,35 @@
       <c r="D165" t="n">
         <v>0</v>
       </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
       </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
       <c r="I165" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
       <c r="M165" t="n">
         <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1" s="5" thickBot="1">
@@ -6345,28 +8005,36 @@
       <c r="D166" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E166" s="9" t="n"/>
+      <c r="E166" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F166" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G166" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H166" s="9" t="n"/>
+      <c r="H166" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I166" s="7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J166" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K166" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="K166" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L166" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M166" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N166" s="9" t="n"/>
+      <c r="N166" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167"/>
     <row r="168"/>

--- a/risk_indicators.xlsx
+++ b/risk_indicators.xlsx
@@ -904,10 +904,10 @@
         <v/>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1.409124149259327</v>
+        <v>1.341918521015387</v>
       </c>
       <c r="X3" t="n">
-        <v>1.412513551050886</v>
+        <v>1.39668576191086</v>
       </c>
       <c r="Y3" s="2">
         <f>(W3-X3)/X3</f>
@@ -990,10 +990,10 @@
         <v/>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1.481490638908731</v>
+        <v>1.471813954999379</v>
       </c>
       <c r="X4" t="n">
-        <v>1.48111166567521</v>
+        <v>1.472900366327911</v>
       </c>
       <c r="Y4" s="2">
         <f>(W4-X4)/X4</f>
@@ -1076,10 +1076,10 @@
         <v/>
       </c>
       <c r="W5" s="1" t="n">
-        <v>1.354639206771643</v>
+        <v>1.365348369177526</v>
       </c>
       <c r="X5" t="n">
-        <v>1.3500922786201</v>
+        <v>1.356252746272316</v>
       </c>
       <c r="Y5" s="2">
         <f>(W5-X5)/X5</f>
@@ -1162,10 +1162,10 @@
         <v/>
       </c>
       <c r="W6" s="5" t="n">
-        <v>0.6240154228978327</v>
+        <v>0.7305066460837168</v>
       </c>
       <c r="X6" s="6" t="n">
-        <v>0.6240154228978327</v>
+        <v>0.7462544375031713</v>
       </c>
       <c r="Y6" s="2">
         <f>(W6-X6)/X6</f>
@@ -1239,7 +1239,7 @@
         <v>0.2866379310344828</v>
       </c>
       <c r="T7" s="8" t="n">
-        <v>0.1487068965517242</v>
+        <v>0</v>
       </c>
       <c r="U7" s="8">
         <f>(T7-S7)/S7</f>
@@ -1355,10 +1355,10 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5384615384615384</v>
+        <v>0</v>
       </c>
       <c r="K9" s="8">
         <f>(J9-I9)/I9</f>
@@ -1553,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>1</v>
+        <v>0.9886104783599089</v>
       </c>
       <c r="T11" s="8" t="n">
-        <v>1</v>
+        <v>0.4419134396355353</v>
       </c>
       <c r="U11" s="8">
         <f>(T11-S11)/S11</f>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.2519893899204244</v>
       </c>
       <c r="K15" s="8">
         <f>(J15-I15)/I15</f>
@@ -2136,10 +2136,10 @@
         <v>0.4157303370786517</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.4606741573033708</v>
+        <v>0.4382022471910112</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>0.550561797752809</v>
+        <v>0.348314606741573</v>
       </c>
       <c r="K19" s="8">
         <f>(J19-I19)/I19</f>
@@ -4887,13 +4887,13 @@
         <v/>
       </c>
       <c r="H55" s="12" t="n">
-        <v>1</v>
+        <v>0.8503401360544192</v>
       </c>
       <c r="I55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J55" s="8" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="K55" s="8">
         <f>(J55-I55)/I55</f>
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="8" t="n">
-        <v>0.5934959349593496</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="K59" s="8">
         <f>(J59-I59)/I59</f>
@@ -5499,13 +5499,13 @@
         <v/>
       </c>
       <c r="H63" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="8" t="n">
-        <v>0</v>
+        <v>0.06478873239436622</v>
       </c>
       <c r="K63" s="8">
         <f>(J63-I63)/I63</f>
@@ -5805,10 +5805,10 @@
         <v/>
       </c>
       <c r="H67" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>0</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="J67" s="8" t="n">
         <v>0</v>
@@ -6111,13 +6111,13 @@
         <v/>
       </c>
       <c r="H71" s="12" t="n">
-        <v>0.846938775510204</v>
+        <v>0</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>0.6224489795918368</v>
+        <v>0</v>
       </c>
       <c r="J71" s="8" t="n">
-        <v>0.5612244897959184</v>
+        <v>0</v>
       </c>
       <c r="K71" s="8">
         <f>(J71-I71)/I71</f>
@@ -6417,13 +6417,13 @@
         <v/>
       </c>
       <c r="H75" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="8" t="n">
-        <v>0.8378378378378378</v>
+        <v>0</v>
       </c>
       <c r="K75" s="8">
         <f>(J75-I75)/I75</f>
@@ -6493,7 +6493,7 @@
         <v/>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6723,13 +6723,13 @@
         <v/>
       </c>
       <c r="H79" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="8" t="n">
-        <v>0</v>
+        <v>0.3895348837209303</v>
       </c>
       <c r="K79" s="8">
         <f>(J79-I79)/I79</f>
@@ -7032,10 +7032,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="J83" s="8" t="n">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K83" s="8">
         <f>(J83-I83)/I83</f>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>0.01785714285714279</v>
       </c>
       <c r="K101" s="8">
         <f>(J101-I101)/I101</f>
@@ -8445,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="T101" t="n">
-        <v>1</v>
+        <v>0.9821428571428572</v>
       </c>
       <c r="U101" s="8">
         <f>(T101-S101)/S101</f>
@@ -9171,13 +9171,13 @@
         <v/>
       </c>
       <c r="H111" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" s="8" t="n">
-        <v>0</v>
+        <v>0.2392156862745098</v>
       </c>
       <c r="K111" s="8">
         <f>(J111-I111)/I111</f>
@@ -9247,13 +9247,13 @@
         <v/>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="K112" s="8">
         <f>(J112-I112)/I112</f>
@@ -9281,7 +9281,7 @@
         <v/>
       </c>
       <c r="R112" t="n">
-        <v>0.950863213811421</v>
+        <v>1</v>
       </c>
       <c r="S112" t="n">
         <v>1</v>
@@ -9326,10 +9326,10 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="8">
         <f>(J113-I113)/I113</f>
@@ -9477,13 +9477,13 @@
         <v/>
       </c>
       <c r="H115" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" s="8" t="n">
-        <v>0</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="K115" s="8">
         <f>(J115-I115)/I115</f>
@@ -9553,13 +9553,13 @@
         <v/>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0.6097560975609756</v>
+        <v>0</v>
       </c>
       <c r="K116" s="8">
         <f>(J116-I116)/I116</f>
@@ -9587,7 +9587,7 @@
         <v/>
       </c>
       <c r="R116" t="n">
-        <v>0.9747675962815405</v>
+        <v>1</v>
       </c>
       <c r="S116" t="n">
         <v>1</v>
@@ -9783,13 +9783,13 @@
         <v/>
       </c>
       <c r="H119" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="8" t="n">
-        <v>0</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="K119" s="8">
         <f>(J119-I119)/I119</f>
@@ -10092,10 +10092,10 @@
         <v>0</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="8" t="n">
-        <v>0</v>
+        <v>0.08571428571428574</v>
       </c>
       <c r="K123" s="8">
         <f>(J123-I123)/I123</f>
@@ -10165,13 +10165,13 @@
         <v/>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0.696969696969697</v>
+        <v>0</v>
       </c>
       <c r="K124" s="8">
         <f>(J124-I124)/I124</f>
@@ -10199,13 +10199,13 @@
         <v/>
       </c>
       <c r="R124" t="n">
-        <v>0.9482288828337875</v>
+        <v>1</v>
       </c>
       <c r="S124" t="n">
-        <v>0.9863760217983651</v>
+        <v>1</v>
       </c>
       <c r="T124" t="n">
-        <v>0.9618528610354223</v>
+        <v>1</v>
       </c>
       <c r="U124" s="8">
         <f>(T124-S124)/S124</f>
@@ -10395,13 +10395,13 @@
         <v/>
       </c>
       <c r="H127" s="12" t="n">
-        <v>1</v>
+        <v>0.8579881656804733</v>
       </c>
       <c r="I127" s="4" t="n">
-        <v>1</v>
+        <v>0.8698224852071006</v>
       </c>
       <c r="J127" s="8" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="K127" s="8">
         <f>(J127-I127)/I127</f>
@@ -10429,13 +10429,13 @@
         <v/>
       </c>
       <c r="R127" s="12" t="n">
-        <v>0.8172043010752689</v>
+        <v>1</v>
       </c>
       <c r="S127" s="4" t="n">
-        <v>0.7741935483870968</v>
+        <v>1</v>
       </c>
       <c r="T127" s="8" t="n">
-        <v>0.7455197132616488</v>
+        <v>1</v>
       </c>
       <c r="U127" s="8">
         <f>(T127-S127)/S127</f>
@@ -10471,13 +10471,13 @@
         <v/>
       </c>
       <c r="H128" t="n">
-        <v>0.5102040816326531</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0.6734693877551021</v>
+        <v>0</v>
       </c>
       <c r="K128" s="8">
         <f>(J128-I128)/I128</f>
@@ -10701,13 +10701,13 @@
         <v/>
       </c>
       <c r="H131" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" s="8" t="n">
-        <v>0.5675675675675675</v>
+        <v>0</v>
       </c>
       <c r="K131" s="8">
         <f>(J131-I131)/I131</f>
@@ -11007,13 +11007,13 @@
         <v/>
       </c>
       <c r="H135" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" s="8" t="n">
-        <v>0</v>
+        <v>0.3518005540166205</v>
       </c>
       <c r="K135" s="8">
         <f>(J135-I135)/I135</f>
@@ -11041,13 +11041,13 @@
         <v/>
       </c>
       <c r="R135" s="12" t="n">
-        <v>1</v>
+        <v>0.8423963133640553</v>
       </c>
       <c r="S135" s="4" t="n">
-        <v>1</v>
+        <v>0.8645161290322581</v>
       </c>
       <c r="T135" s="8" t="n">
-        <v>1</v>
+        <v>0.8866359447004608</v>
       </c>
       <c r="U135" s="8">
         <f>(T135-S135)/S135</f>
@@ -11083,13 +11083,13 @@
         <v/>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>0.2752043596730245</v>
       </c>
       <c r="K136" s="8">
         <f>(J136-I136)/I136</f>
@@ -11117,7 +11117,7 @@
         <v/>
       </c>
       <c r="R136" t="n">
-        <v>1</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="S136" t="n">
         <v>1</v>
@@ -11313,13 +11313,13 @@
         <v/>
       </c>
       <c r="H139" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" s="8" t="n">
-        <v>0</v>
+        <v>0.3594771241830066</v>
       </c>
       <c r="K139" s="8">
         <f>(J139-I139)/I139</f>
@@ -11347,13 +11347,13 @@
         <v/>
       </c>
       <c r="R139" s="12" t="n">
-        <v>1</v>
+        <v>0.828169014084507</v>
       </c>
       <c r="S139" s="4" t="n">
-        <v>1</v>
+        <v>0.8262910798122066</v>
       </c>
       <c r="T139" s="8" t="n">
-        <v>1</v>
+        <v>0.8413145539906103</v>
       </c>
       <c r="U139" s="8">
         <f>(T139-S139)/S139</f>
@@ -11389,13 +11389,13 @@
         <v/>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>0.3848580441640379</v>
       </c>
       <c r="K140" s="8">
         <f>(J140-I140)/I140</f>
@@ -11423,13 +11423,13 @@
         <v/>
       </c>
       <c r="R140" t="n">
-        <v>1</v>
+        <v>0.7076566125290024</v>
       </c>
       <c r="S140" t="n">
-        <v>1</v>
+        <v>0.777262180974478</v>
       </c>
       <c r="T140" t="n">
-        <v>1</v>
+        <v>0.8097447795823666</v>
       </c>
       <c r="U140" s="8">
         <f>(T140-S140)/S140</f>
@@ -11625,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="J143" s="8" t="n">
-        <v>1</v>
+        <v>0.3625304136253041</v>
       </c>
       <c r="K143" s="8">
         <f>(J143-I143)/I143</f>
@@ -11653,13 +11653,13 @@
         <v/>
       </c>
       <c r="R143" s="12" t="n">
-        <v>0.8207343412526998</v>
+        <v>0.8291316526610645</v>
       </c>
       <c r="S143" s="4" t="n">
-        <v>0.8509719222462203</v>
+        <v>0.8141923436041083</v>
       </c>
       <c r="T143" s="8" t="n">
-        <v>0.8185745140388769</v>
+        <v>0.830999066293184</v>
       </c>
       <c r="U143" s="8">
         <f>(T143-S143)/S143</f>
@@ -11695,13 +11695,13 @@
         <v/>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>0.4036939313984169</v>
       </c>
       <c r="K144" s="8">
         <f>(J144-I144)/I144</f>
@@ -11729,13 +11729,13 @@
         <v/>
       </c>
       <c r="R144" t="n">
-        <v>1</v>
+        <v>0.5868814729574223</v>
       </c>
       <c r="S144" t="n">
-        <v>1</v>
+        <v>0.6536248561565017</v>
       </c>
       <c r="T144" t="n">
-        <v>1</v>
+        <v>0.6881472957422324</v>
       </c>
       <c r="U144" s="8">
         <f>(T144-S144)/S144</f>
@@ -11925,13 +11925,13 @@
         <v/>
       </c>
       <c r="H147" s="12" t="n">
-        <v>0.6835443037974683</v>
+        <v>1</v>
       </c>
       <c r="I147" s="4" t="n">
-        <v>0.4936708860759493</v>
+        <v>1</v>
       </c>
       <c r="J147" s="8" t="n">
-        <v>0.5569620253164558</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="K147" s="8">
         <f>(J147-I147)/I147</f>
@@ -11962,10 +11962,10 @@
         <v>1</v>
       </c>
       <c r="S147" s="4" t="n">
-        <v>1</v>
+        <v>0.9663941871026339</v>
       </c>
       <c r="T147" s="8" t="n">
-        <v>1</v>
+        <v>0.9809264305177112</v>
       </c>
       <c r="U147" s="8">
         <f>(T147-S147)/S147</f>
@@ -12001,13 +12001,13 @@
         <v/>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="K148" s="8">
         <f>(J148-I148)/I148</f>
@@ -12035,13 +12035,13 @@
         <v/>
       </c>
       <c r="R148" t="n">
-        <v>1</v>
+        <v>0.7206385404789054</v>
       </c>
       <c r="S148" t="n">
-        <v>1</v>
+        <v>0.8164196123147093</v>
       </c>
       <c r="T148" t="n">
-        <v>1</v>
+        <v>0.8415051311288484</v>
       </c>
       <c r="U148" s="8">
         <f>(T148-S148)/S148</f>
@@ -12231,13 +12231,13 @@
         <v/>
       </c>
       <c r="H151" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" s="8" t="n">
-        <v>0</v>
+        <v>0.4167371090448013</v>
       </c>
       <c r="K151" s="8">
         <f>(J151-I151)/I151</f>
@@ -12265,13 +12265,13 @@
         <v/>
       </c>
       <c r="R151" s="12" t="n">
-        <v>1</v>
+        <v>0.7049873203719358</v>
       </c>
       <c r="S151" s="4" t="n">
-        <v>1</v>
+        <v>0.5562130177514792</v>
       </c>
       <c r="T151" s="8" t="n">
-        <v>1</v>
+        <v>0.5832628909551987</v>
       </c>
       <c r="U151" s="8">
         <f>(T151-S151)/S151</f>
@@ -12307,13 +12307,13 @@
         <v/>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>0.4449152542372882</v>
       </c>
       <c r="K152" s="8">
         <f>(J152-I152)/I152</f>
@@ -12341,13 +12341,13 @@
         <v/>
       </c>
       <c r="R152" t="n">
-        <v>1</v>
+        <v>0.8715415019762845</v>
       </c>
       <c r="S152" t="n">
-        <v>1</v>
+        <v>0.9387351778656127</v>
       </c>
       <c r="T152" t="n">
-        <v>1</v>
+        <v>0.9624505928853755</v>
       </c>
       <c r="U152" s="8">
         <f>(T152-S152)/S152</f>
@@ -12537,13 +12537,13 @@
         <v/>
       </c>
       <c r="H155" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" s="8" t="n">
-        <v>0</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="K155" s="8">
         <f>(J155-I155)/I155</f>
@@ -12571,13 +12571,13 @@
         <v/>
       </c>
       <c r="R155" s="12" t="n">
-        <v>1</v>
+        <v>0.4433333333333334</v>
       </c>
       <c r="S155" s="4" t="n">
-        <v>1</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="T155" s="8" t="n">
-        <v>1</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="U155" s="8">
         <f>(T155-S155)/S155</f>
@@ -12613,13 +12613,13 @@
         <v/>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="K156" s="8">
         <f>(J156-I156)/I156</f>
@@ -12843,13 +12843,13 @@
         <v/>
       </c>
       <c r="H159" s="12" t="n">
-        <v>0.2261904761904762</v>
+        <v>1</v>
       </c>
       <c r="I159" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" s="8">
         <f>(J159-I159)/I159</f>
@@ -12877,13 +12877,13 @@
         <v/>
       </c>
       <c r="R159" s="12" t="n">
-        <v>1</v>
+        <v>0.006546644844517169</v>
       </c>
       <c r="S159" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T159" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U159" s="8">
         <f>(T159-S159)/S159</f>
@@ -12919,13 +12919,13 @@
         <v/>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="K160" s="8">
         <f>(J160-I160)/I160</f>
@@ -12953,13 +12953,13 @@
         <v/>
       </c>
       <c r="R160" t="n">
-        <v>1</v>
+        <v>0.1814814814814815</v>
       </c>
       <c r="S160" t="n">
-        <v>1</v>
+        <v>0.1518518518518519</v>
       </c>
       <c r="T160" t="n">
-        <v>1</v>
+        <v>0.1851851851851851</v>
       </c>
       <c r="U160" s="8">
         <f>(T160-S160)/S160</f>
@@ -12995,13 +12995,13 @@
         <v/>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" s="8">
         <f>(J161-I161)/I161</f>
@@ -13029,13 +13029,13 @@
         <v/>
       </c>
       <c r="R161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U161" s="8">
         <f>(T161-S161)/S161</f>
@@ -13149,13 +13149,13 @@
         <v/>
       </c>
       <c r="H163" s="12" t="n">
-        <v>0.1603053435114504</v>
+        <v>1</v>
       </c>
       <c r="I163" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" s="8">
         <f>(J163-I163)/I163</f>
@@ -13183,13 +13183,13 @@
         <v/>
       </c>
       <c r="R163" s="12" t="n">
-        <v>1</v>
+        <v>0.2074829931972789</v>
       </c>
       <c r="S163" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T163" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U163" s="8">
         <f>(T163-S163)/S163</f>
@@ -13225,13 +13225,13 @@
         <v/>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="K164" s="8">
         <f>(J164-I164)/I164</f>
@@ -13259,13 +13259,13 @@
         <v/>
       </c>
       <c r="R164" t="n">
-        <v>1</v>
+        <v>0.4295302013422819</v>
       </c>
       <c r="S164" t="n">
-        <v>1</v>
+        <v>0.3911792905081496</v>
       </c>
       <c r="T164" t="n">
-        <v>1</v>
+        <v>0.4218600191754553</v>
       </c>
       <c r="U164" s="8">
         <f>(T164-S164)/S164</f>
@@ -13301,13 +13301,13 @@
         <v/>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>0.5114503816793894</v>
       </c>
       <c r="K165" s="8">
         <f>(J165-I165)/I165</f>
@@ -13335,13 +13335,13 @@
         <v/>
       </c>
       <c r="R165" t="n">
-        <v>1</v>
+        <v>0.366412213740458</v>
       </c>
       <c r="S165" t="n">
-        <v>1</v>
+        <v>0.366412213740458</v>
       </c>
       <c r="T165" t="n">
-        <v>1</v>
+        <v>0.4885496183206106</v>
       </c>
       <c r="U165" s="8">
         <f>(T165-S165)/S165</f>

--- a/risk_indicators.xlsx
+++ b/risk_indicators.xlsx
@@ -904,10 +904,10 @@
         <v/>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1.341918521015387</v>
+        <v>1.147331546857365</v>
       </c>
       <c r="X3" t="n">
-        <v>1.39668576191086</v>
+        <v>1.263490971854047</v>
       </c>
       <c r="Y3" s="2">
         <f>(W3-X3)/X3</f>
@@ -990,10 +990,10 @@
         <v/>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1.471813954999379</v>
+        <v>1.078822186879199</v>
       </c>
       <c r="X4" t="n">
-        <v>1.472900366327911</v>
+        <v>1.205901382928495</v>
       </c>
       <c r="Y4" s="2">
         <f>(W4-X4)/X4</f>
@@ -1076,10 +1076,10 @@
         <v/>
       </c>
       <c r="W5" s="1" t="n">
-        <v>1.365348369177526</v>
+        <v>0.9392442546712261</v>
       </c>
       <c r="X5" t="n">
-        <v>1.356252746272316</v>
+        <v>1.103020550517574</v>
       </c>
       <c r="Y5" s="2">
         <f>(W5-X5)/X5</f>
@@ -1162,10 +1162,10 @@
         <v/>
       </c>
       <c r="W6" s="5" t="n">
-        <v>0.7305066460837168</v>
+        <v>0.7029330991065131</v>
       </c>
       <c r="X6" s="6" t="n">
-        <v>0.7462544375031713</v>
+        <v>0.7141775046275405</v>
       </c>
       <c r="Y6" s="2">
         <f>(W6-X6)/X6</f>
@@ -1233,10 +1233,10 @@
         <v/>
       </c>
       <c r="R7" s="12" t="n">
-        <v>0.2866379310344828</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.2866379310344828</v>
+        <v>0</v>
       </c>
       <c r="T7" s="8" t="n">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v/>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.1889400921658986</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.1889400921658986</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.1474654377880185</v>
       </c>
       <c r="K8" s="8">
         <f>(J8-I8)/I8</f>
@@ -1310,10 +1310,10 @@
         <v/>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.9827856025039123</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.9827856025039123</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
@@ -1352,13 +1352,13 @@
         <v/>
       </c>
       <c r="H9" t="n">
-        <v>0.6153846153846154</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5384615384615384</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="K9" s="8">
         <f>(J9-I9)/I9</f>
@@ -1386,13 +1386,13 @@
         <v/>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="U9" s="8">
         <f>(T9-S9)/S9</f>
@@ -1550,13 +1550,13 @@
         <v/>
       </c>
       <c r="R11" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>0.9886104783599089</v>
+        <v>0</v>
       </c>
       <c r="T11" s="8" t="n">
-        <v>0.4419134396355353</v>
+        <v>0</v>
       </c>
       <c r="U11" s="8">
         <f>(T11-S11)/S11</f>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>0.2519893899204244</v>
+        <v>0.7360637087599544</v>
       </c>
       <c r="K15" s="8">
         <f>(J15-I15)/I15</f>
@@ -1861,13 +1861,13 @@
         <v/>
       </c>
       <c r="R15" s="12" t="n">
-        <v>1</v>
+        <v>0.229806598407281</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>1</v>
+        <v>0.229806598407281</v>
       </c>
       <c r="T15" s="8" t="n">
-        <v>1</v>
+        <v>0.2639362912400456</v>
       </c>
       <c r="U15" s="8">
         <f>(T15-S15)/S15</f>
@@ -1903,13 +1903,13 @@
         <v/>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="8">
         <f>(J16-I16)/I16</f>
@@ -1937,13 +1937,13 @@
         <v/>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="8">
         <f>(T16-S16)/S16</f>
@@ -1979,10 +1979,10 @@
         <v/>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2133,13 +2133,13 @@
         <v/>
       </c>
       <c r="H19" s="12" t="n">
-        <v>0.4157303370786517</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.4382022471910112</v>
+        <v>1</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>0.348314606741573</v>
+        <v>0.5357873210633947</v>
       </c>
       <c r="K19" s="8">
         <f>(J19-I19)/I19</f>
@@ -2167,13 +2167,13 @@
         <v/>
       </c>
       <c r="R19" s="12" t="n">
-        <v>1</v>
+        <v>0.4314928425357873</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>1</v>
+        <v>0.4335378323108384</v>
       </c>
       <c r="T19" s="8" t="n">
-        <v>1</v>
+        <v>0.4642126789366053</v>
       </c>
       <c r="U19" s="8">
         <f>(T19-S19)/S19</f>
@@ -2209,13 +2209,13 @@
         <v/>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.8573281452658885</v>
       </c>
       <c r="K20" s="8">
         <f>(J20-I20)/I20</f>
@@ -2243,13 +2243,13 @@
         <v/>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0.1037613488975356</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0.1037613488975356</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0.1426718547341115</v>
       </c>
       <c r="U20" s="8">
         <f>(T20-S20)/S20</f>
@@ -2439,13 +2439,13 @@
         <v/>
       </c>
       <c r="H23" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="8" t="n">
-        <v>0</v>
+        <v>0.6222023276633841</v>
       </c>
       <c r="K23" s="8">
         <f>(J23-I23)/I23</f>
@@ -2473,13 +2473,13 @@
         <v/>
       </c>
       <c r="R23" s="12" t="n">
-        <v>1</v>
+        <v>0.2059086839749329</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>1</v>
+        <v>0.350940017905103</v>
       </c>
       <c r="T23" s="8" t="n">
-        <v>1</v>
+        <v>0.3777976723366159</v>
       </c>
       <c r="U23" s="8">
         <f>(T23-S23)/S23</f>
@@ -2515,13 +2515,13 @@
         <v/>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4905450500556173</v>
       </c>
       <c r="K24" s="8">
         <f>(J24-I24)/I24</f>
@@ -2549,13 +2549,13 @@
         <v/>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0.4783092324805339</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0.4805339265850945</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0.5094549499443827</v>
       </c>
       <c r="U24" s="8">
         <f>(T24-S24)/S24</f>
@@ -2745,13 +2745,13 @@
         <v/>
       </c>
       <c r="H27" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>0</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="J27" s="8" t="n">
-        <v>0</v>
+        <v>0.2535612535612536</v>
       </c>
       <c r="K27" s="8">
         <f>(J27-I27)/I27</f>
@@ -2821,13 +2821,13 @@
         <v/>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4235807860262009</v>
       </c>
       <c r="K28" s="8">
         <f>(J28-I28)/I28</f>
@@ -2855,13 +2855,13 @@
         <v/>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0.9271948608137045</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>0.9293361884368309</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0.9593147751605996</v>
       </c>
       <c r="U28" s="8">
         <f>(T28-S28)/S28</f>
@@ -3051,13 +3051,13 @@
         <v/>
       </c>
       <c r="H31" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="8" t="n">
-        <v>0</v>
+        <v>0.6133209990749307</v>
       </c>
       <c r="K31" s="8">
         <f>(J31-I31)/I31</f>
@@ -3085,13 +3085,13 @@
         <v/>
       </c>
       <c r="R31" s="12" t="n">
-        <v>1</v>
+        <v>0.3385753931544866</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>1</v>
+        <v>0.366327474560592</v>
       </c>
       <c r="T31" s="8" t="n">
-        <v>1</v>
+        <v>0.3866790009250693</v>
       </c>
       <c r="U31" s="8">
         <f>(T31-S31)/S31</f>
@@ -3127,13 +3127,13 @@
         <v/>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.2994350282485876</v>
       </c>
       <c r="K32" s="8">
         <f>(J32-I32)/I32</f>
@@ -3357,13 +3357,13 @@
         <v/>
       </c>
       <c r="H35" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="8" t="n">
-        <v>0</v>
+        <v>0.4098972922502334</v>
       </c>
       <c r="K35" s="8">
         <f>(J35-I35)/I35</f>
@@ -3391,13 +3391,13 @@
         <v/>
       </c>
       <c r="R35" s="12" t="n">
-        <v>1</v>
+        <v>0.5303454715219421</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>1</v>
+        <v>0.5564892623716153</v>
       </c>
       <c r="T35" s="8" t="n">
-        <v>1</v>
+        <v>0.5901027077497666</v>
       </c>
       <c r="U35" s="8">
         <f>(T35-S35)/S35</f>
@@ -3663,13 +3663,13 @@
         <v/>
       </c>
       <c r="H39" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="8">
         <f>(J39-I39)/I39</f>
@@ -3697,13 +3697,13 @@
         <v/>
       </c>
       <c r="R39" s="12" t="n">
-        <v>1</v>
+        <v>0.1031746031746031</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1</v>
+        <v>0.07341269841269837</v>
       </c>
       <c r="T39" s="8" t="n">
-        <v>1</v>
+        <v>0.1051587301587301</v>
       </c>
       <c r="U39" s="8">
         <f>(T39-S39)/S39</f>
@@ -3815,13 +3815,13 @@
         <v/>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="K41" s="8">
         <f>(J41-I41)/I41</f>
@@ -3969,13 +3969,13 @@
         <v/>
       </c>
       <c r="H43" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="8" t="n">
-        <v>0</v>
+        <v>0.5095541401273885</v>
       </c>
       <c r="K43" s="8">
         <f>(J43-I43)/I43</f>
@@ -4003,13 +4003,13 @@
         <v/>
       </c>
       <c r="R43" s="12" t="n">
-        <v>1</v>
+        <v>0.6897689768976898</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1</v>
+        <v>0.740924092409241</v>
       </c>
       <c r="T43" s="8" t="n">
-        <v>1</v>
+        <v>0.764026402640264</v>
       </c>
       <c r="U43" s="8">
         <f>(T43-S43)/S43</f>
@@ -4045,10 +4045,10 @@
         <v/>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4121,13 +4121,13 @@
         <v/>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="8">
         <f>(J45-I45)/I45</f>
@@ -4155,13 +4155,13 @@
         <v/>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>0.6532258064516129</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="U45" s="8">
         <f>(T45-S45)/S45</f>
@@ -4275,13 +4275,13 @@
         <v/>
       </c>
       <c r="H47" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="8" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K47" s="8">
         <f>(J47-I47)/I47</f>
@@ -4309,13 +4309,13 @@
         <v/>
       </c>
       <c r="R47" s="12" t="n">
-        <v>1</v>
+        <v>0.6286161063330727</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>1</v>
+        <v>0.653635652853792</v>
       </c>
       <c r="T47" s="8" t="n">
-        <v>1</v>
+        <v>0.6724003127443315</v>
       </c>
       <c r="U47" s="8">
         <f>(T47-S47)/S47</f>
@@ -4351,13 +4351,13 @@
         <v/>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="K48" s="8">
         <f>(J48-I48)/I48</f>
@@ -4385,13 +4385,13 @@
         <v/>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>0.7424812030075187</v>
       </c>
       <c r="U48" s="8">
         <f>(T48-S48)/S48</f>
@@ -4427,13 +4427,13 @@
         <v/>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>0.1414634146341464</v>
       </c>
       <c r="K49" s="8">
         <f>(J49-I49)/I49</f>
@@ -4461,10 +4461,10 @@
         <v/>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0.8914728682170543</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>0.9689922480620154</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4581,13 +4581,13 @@
         <v/>
       </c>
       <c r="H51" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="8" t="n">
-        <v>0</v>
+        <v>0.8581081081081081</v>
       </c>
       <c r="K51" s="8">
         <f>(J51-I51)/I51</f>
@@ -4615,13 +4615,13 @@
         <v/>
       </c>
       <c r="R51" s="12" t="n">
-        <v>1</v>
+        <v>0.4125874125874126</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>1</v>
+        <v>0.4458041958041958</v>
       </c>
       <c r="T51" s="8" t="n">
-        <v>1</v>
+        <v>0.4755244755244755</v>
       </c>
       <c r="U51" s="8">
         <f>(T51-S51)/S51</f>
@@ -4657,13 +4657,13 @@
         <v/>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="K52" s="8">
         <f>(J52-I52)/I52</f>
@@ -4691,13 +4691,13 @@
         <v/>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>0.6135629709364908</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>0.6221743810548978</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>0.6544671689989235</v>
       </c>
       <c r="U52" s="8">
         <f>(T52-S52)/S52</f>
@@ -4733,13 +4733,13 @@
         <v/>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>0.2839506172839507</v>
       </c>
       <c r="K53" s="8">
         <f>(J53-I53)/I53</f>
@@ -4767,13 +4767,13 @@
         <v/>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>0.4855967078189301</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>0.7160493827160493</v>
       </c>
       <c r="U53" s="8">
         <f>(T53-S53)/S53</f>
@@ -4887,13 +4887,13 @@
         <v/>
       </c>
       <c r="H55" s="12" t="n">
-        <v>0.8503401360544192</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J55" s="8" t="n">
-        <v>0.1533742331288344</v>
+        <v>1</v>
       </c>
       <c r="K55" s="8">
         <f>(J55-I55)/I55</f>
@@ -4921,13 +4921,13 @@
         <v/>
       </c>
       <c r="R55" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" s="8">
         <f>(T55-S55)/S55</f>
@@ -4963,13 +4963,13 @@
         <v/>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="K56" s="8">
         <f>(J56-I56)/I56</f>
@@ -4997,13 +4997,13 @@
         <v/>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>0.4794188861985472</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>0.4818401937046004</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>0.5205811138014528</v>
       </c>
       <c r="U56" s="8">
         <f>(T56-S56)/S56</f>
@@ -5039,13 +5039,13 @@
         <v/>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="8">
         <f>(J57-I57)/I57</f>
@@ -5073,13 +5073,13 @@
         <v/>
       </c>
       <c r="R57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" s="8">
         <f>(T57-S57)/S57</f>
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="8" t="n">
-        <v>0.3333333333333334</v>
+        <v>1</v>
       </c>
       <c r="K59" s="8">
         <f>(J59-I59)/I59</f>
@@ -5227,13 +5227,13 @@
         <v/>
       </c>
       <c r="R59" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" s="8">
         <f>(T59-S59)/S59</f>
@@ -5269,13 +5269,13 @@
         <v/>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="8">
         <f>(J60-I60)/I60</f>
@@ -5303,13 +5303,13 @@
         <v/>
       </c>
       <c r="R60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" s="8">
         <f>(T60-S60)/S60</f>
@@ -5345,13 +5345,13 @@
         <v/>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="8">
         <f>(J61-I61)/I61</f>
@@ -5379,13 +5379,13 @@
         <v/>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" s="8">
         <f>(T61-S61)/S61</f>
@@ -5505,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="8" t="n">
-        <v>0.06478873239436622</v>
+        <v>1</v>
       </c>
       <c r="K63" s="8">
         <f>(J63-I63)/I63</f>
@@ -5533,13 +5533,13 @@
         <v/>
       </c>
       <c r="R63" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="8">
         <f>(T63-S63)/S63</f>
@@ -5575,13 +5575,13 @@
         <v/>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="8">
         <f>(J64-I64)/I64</f>
@@ -5609,13 +5609,13 @@
         <v/>
       </c>
       <c r="R64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="8">
         <f>(T64-S64)/S64</f>
@@ -5651,13 +5651,13 @@
         <v/>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="8">
         <f>(J65-I65)/I65</f>
@@ -5685,13 +5685,13 @@
         <v/>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" s="8">
         <f>(T65-S65)/S65</f>
@@ -5727,13 +5727,13 @@
         <v/>
       </c>
       <c r="H66" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="8">
         <f>(J66-I66)/I66</f>
@@ -5761,13 +5761,13 @@
         <v/>
       </c>
       <c r="R66" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" s="8">
         <f>(T66-S66)/S66</f>
@@ -5808,10 +5808,10 @@
         <v>1</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>0.6279069767441861</v>
+        <v>1</v>
       </c>
       <c r="J67" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="8">
         <f>(J67-I67)/I67</f>
@@ -5839,13 +5839,13 @@
         <v/>
       </c>
       <c r="R67" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" s="8">
         <f>(T67-S67)/S67</f>
@@ -5881,13 +5881,13 @@
         <v/>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="8">
         <f>(J68-I68)/I68</f>
@@ -5915,13 +5915,13 @@
         <v/>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" s="8">
         <f>(T68-S68)/S68</f>
@@ -5957,13 +5957,13 @@
         <v/>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="8">
         <f>(J69-I69)/I69</f>
@@ -5991,13 +5991,13 @@
         <v/>
       </c>
       <c r="R69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69" s="8">
         <f>(T69-S69)/S69</f>
@@ -6033,10 +6033,10 @@
         <v/>
       </c>
       <c r="H70" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="6" t="n">
         <v>0</v>
@@ -6067,10 +6067,10 @@
         <v/>
       </c>
       <c r="R70" s="14" t="n">
-        <v>1</v>
+        <v>0.4347826086956521</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>1</v>
+        <v>0.927536231884058</v>
       </c>
       <c r="T70" s="6" t="n">
         <v>1</v>
@@ -6111,13 +6111,13 @@
         <v/>
       </c>
       <c r="H71" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="8">
         <f>(J71-I71)/I71</f>
@@ -6145,13 +6145,13 @@
         <v/>
       </c>
       <c r="R71" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" s="8">
         <f>(T71-S71)/S71</f>
@@ -6187,13 +6187,13 @@
         <v/>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="8">
         <f>(J72-I72)/I72</f>
@@ -6221,13 +6221,13 @@
         <v/>
       </c>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" s="8">
         <f>(T72-S72)/S72</f>
@@ -6263,13 +6263,13 @@
         <v/>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="8">
         <f>(J73-I73)/I73</f>
@@ -6297,13 +6297,13 @@
         <v/>
       </c>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" s="8">
         <f>(T73-S73)/S73</f>
@@ -6417,13 +6417,13 @@
         <v/>
       </c>
       <c r="H75" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="8">
         <f>(J75-I75)/I75</f>
@@ -6451,13 +6451,13 @@
         <v/>
       </c>
       <c r="R75" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" s="8">
         <f>(T75-S75)/S75</f>
@@ -6493,13 +6493,13 @@
         <v/>
       </c>
       <c r="H76" t="n">
-        <v>0.1428571428571429</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="8">
         <f>(J76-I76)/I76</f>
@@ -6527,13 +6527,13 @@
         <v/>
       </c>
       <c r="R76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U76" s="8">
         <f>(T76-S76)/S76</f>
@@ -6569,13 +6569,13 @@
         <v/>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="8">
         <f>(J77-I77)/I77</f>
@@ -6603,13 +6603,13 @@
         <v/>
       </c>
       <c r="R77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U77" s="8">
         <f>(T77-S77)/S77</f>
@@ -6729,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="8" t="n">
-        <v>0.3895348837209303</v>
+        <v>1</v>
       </c>
       <c r="K79" s="8">
         <f>(J79-I79)/I79</f>
@@ -6757,13 +6757,13 @@
         <v/>
       </c>
       <c r="R79" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S79" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79" s="8">
         <f>(T79-S79)/S79</f>
@@ -6799,13 +6799,13 @@
         <v/>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="8">
         <f>(J80-I80)/I80</f>
@@ -6833,13 +6833,13 @@
         <v/>
       </c>
       <c r="R80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80" s="8">
         <f>(T80-S80)/S80</f>
@@ -6875,13 +6875,13 @@
         <v/>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="8">
         <f>(J81-I81)/I81</f>
@@ -6909,13 +6909,13 @@
         <v/>
       </c>
       <c r="R81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U81" s="8">
         <f>(T81-S81)/S81</f>
@@ -7029,13 +7029,13 @@
         <v/>
       </c>
       <c r="H83" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>0.3846153846153846</v>
+        <v>1</v>
       </c>
       <c r="J83" s="8" t="n">
-        <v>0.3076923076923077</v>
+        <v>1</v>
       </c>
       <c r="K83" s="8">
         <f>(J83-I83)/I83</f>
@@ -7063,13 +7063,13 @@
         <v/>
       </c>
       <c r="R83" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83" s="8">
         <f>(T83-S83)/S83</f>
@@ -7105,13 +7105,13 @@
         <v/>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="8">
         <f>(J84-I84)/I84</f>
@@ -7139,13 +7139,13 @@
         <v/>
       </c>
       <c r="R84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U84" s="8">
         <f>(T84-S84)/S84</f>
@@ -7181,13 +7181,13 @@
         <v/>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="8">
         <f>(J85-I85)/I85</f>
@@ -7215,13 +7215,13 @@
         <v/>
       </c>
       <c r="R85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85" s="8">
         <f>(T85-S85)/S85</f>
@@ -7335,13 +7335,13 @@
         <v/>
       </c>
       <c r="H87" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="8">
         <f>(J87-I87)/I87</f>
@@ -7369,13 +7369,13 @@
         <v/>
       </c>
       <c r="R87" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S87" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T87" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U87" s="8">
         <f>(T87-S87)/S87</f>
@@ -7411,13 +7411,13 @@
         <v/>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="8">
         <f>(J88-I88)/I88</f>
@@ -7445,13 +7445,13 @@
         <v/>
       </c>
       <c r="R88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" s="8">
         <f>(T88-S88)/S88</f>
@@ -7487,13 +7487,13 @@
         <v/>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="8">
         <f>(J89-I89)/I89</f>
@@ -7521,13 +7521,13 @@
         <v/>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U89" s="8">
         <f>(T89-S89)/S89</f>
@@ -7641,13 +7641,13 @@
         <v/>
       </c>
       <c r="H91" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="8">
         <f>(J91-I91)/I91</f>
@@ -7675,13 +7675,13 @@
         <v/>
       </c>
       <c r="R91" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S91" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T91" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U91" s="8">
         <f>(T91-S91)/S91</f>
@@ -7717,13 +7717,13 @@
         <v/>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="8">
         <f>(J92-I92)/I92</f>
@@ -7751,13 +7751,13 @@
         <v/>
       </c>
       <c r="R92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92" s="8">
         <f>(T92-S92)/S92</f>
@@ -7793,13 +7793,13 @@
         <v/>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="8">
         <f>(J93-I93)/I93</f>
@@ -7827,13 +7827,13 @@
         <v/>
       </c>
       <c r="R93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U93" s="8">
         <f>(T93-S93)/S93</f>
@@ -7947,13 +7947,13 @@
         <v/>
       </c>
       <c r="H95" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="8">
         <f>(J95-I95)/I95</f>
@@ -7981,13 +7981,13 @@
         <v/>
       </c>
       <c r="R95" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T95" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95" s="8">
         <f>(T95-S95)/S95</f>
@@ -8023,13 +8023,13 @@
         <v/>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="8">
         <f>(J96-I96)/I96</f>
@@ -8057,13 +8057,13 @@
         <v/>
       </c>
       <c r="R96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U96" s="8">
         <f>(T96-S96)/S96</f>
@@ -8099,13 +8099,13 @@
         <v/>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="8">
         <f>(J97-I97)/I97</f>
@@ -8133,13 +8133,13 @@
         <v/>
       </c>
       <c r="R97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97" s="8">
         <f>(T97-S97)/S97</f>
@@ -8253,13 +8253,13 @@
         <v/>
       </c>
       <c r="H99" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="8">
         <f>(J99-I99)/I99</f>
@@ -8287,13 +8287,13 @@
         <v/>
       </c>
       <c r="R99" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T99" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99" s="8">
         <f>(T99-S99)/S99</f>
@@ -8329,13 +8329,13 @@
         <v/>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="8">
         <f>(J100-I100)/I100</f>
@@ -8363,13 +8363,13 @@
         <v/>
       </c>
       <c r="R100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" s="8">
         <f>(T100-S100)/S100</f>
@@ -8405,13 +8405,13 @@
         <v/>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01785714285714279</v>
+        <v>1</v>
       </c>
       <c r="K101" s="8">
         <f>(J101-I101)/I101</f>
@@ -8439,13 +8439,13 @@
         <v/>
       </c>
       <c r="R101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>0.9821428571428572</v>
+        <v>0</v>
       </c>
       <c r="U101" s="8">
         <f>(T101-S101)/S101</f>
@@ -8559,13 +8559,13 @@
         <v/>
       </c>
       <c r="H103" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="8">
         <f>(J103-I103)/I103</f>
@@ -8593,13 +8593,13 @@
         <v/>
       </c>
       <c r="R103" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S103" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T103" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U103" s="8">
         <f>(T103-S103)/S103</f>
@@ -8635,13 +8635,13 @@
         <v/>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="8">
         <f>(J104-I104)/I104</f>
@@ -8669,13 +8669,13 @@
         <v/>
       </c>
       <c r="R104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U104" s="8">
         <f>(T104-S104)/S104</f>
@@ -8711,13 +8711,13 @@
         <v/>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="8">
         <f>(J105-I105)/I105</f>
@@ -8745,13 +8745,13 @@
         <v/>
       </c>
       <c r="R105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U105" s="8">
         <f>(T105-S105)/S105</f>
@@ -8865,13 +8865,13 @@
         <v/>
       </c>
       <c r="H107" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="8">
         <f>(J107-I107)/I107</f>
@@ -8899,13 +8899,13 @@
         <v/>
       </c>
       <c r="R107" s="12" t="n">
-        <v>1</v>
+        <v>0.266857962697274</v>
       </c>
       <c r="S107" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T107" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U107" s="8">
         <f>(T107-S107)/S107</f>
@@ -8941,13 +8941,13 @@
         <v/>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="8">
         <f>(J108-I108)/I108</f>
@@ -8975,13 +8975,13 @@
         <v/>
       </c>
       <c r="R108" t="n">
-        <v>1</v>
+        <v>0.02635914332784184</v>
       </c>
       <c r="S108" t="n">
-        <v>1</v>
+        <v>0.2273476112026359</v>
       </c>
       <c r="T108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U108" s="8">
         <f>(T108-S108)/S108</f>
@@ -9017,13 +9017,13 @@
         <v/>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" s="8">
         <f>(J109-I109)/I109</f>
@@ -9051,13 +9051,13 @@
         <v/>
       </c>
       <c r="R109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U109" s="8">
         <f>(T109-S109)/S109</f>
@@ -9177,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="8" t="n">
-        <v>0.2392156862745098</v>
+        <v>1</v>
       </c>
       <c r="K111" s="8">
         <f>(J111-I111)/I111</f>
@@ -9205,13 +9205,13 @@
         <v/>
       </c>
       <c r="R111" s="12" t="n">
-        <v>1</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="S111" s="4" t="n">
-        <v>1</v>
+        <v>0.1971428571428572</v>
       </c>
       <c r="T111" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U111" s="8">
         <f>(T111-S111)/S111</f>
@@ -9247,13 +9247,13 @@
         <v/>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" s="8">
         <f>(J112-I112)/I112</f>
@@ -9281,13 +9281,13 @@
         <v/>
       </c>
       <c r="R112" t="n">
-        <v>1</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="S112" t="n">
-        <v>1</v>
+        <v>0.7032967032967034</v>
       </c>
       <c r="T112" t="n">
-        <v>1</v>
+        <v>0.4960753532182103</v>
       </c>
       <c r="U112" s="8">
         <f>(T112-S112)/S112</f>
@@ -9323,10 +9323,10 @@
         <v/>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="8" t="n">
-        <v>0.1888888888888889</v>
+        <v>1</v>
       </c>
       <c r="K115" s="8">
         <f>(J115-I115)/I115</f>
@@ -9511,13 +9511,13 @@
         <v/>
       </c>
       <c r="R115" s="12" t="n">
-        <v>1</v>
+        <v>0.9596774193548387</v>
       </c>
       <c r="S115" s="4" t="n">
-        <v>1</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="T115" s="8" t="n">
-        <v>1</v>
+        <v>0.8306451612903226</v>
       </c>
       <c r="U115" s="8">
         <f>(T115-S115)/S115</f>
@@ -9553,7 +9553,7 @@
         <v/>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="8" t="n">
-        <v>0.3736263736263736</v>
+        <v>0.3569739952718676</v>
       </c>
       <c r="K119" s="8">
         <f>(J119-I119)/I119</f>
@@ -9820,7 +9820,7 @@
         <v>1</v>
       </c>
       <c r="S119" s="4" t="n">
-        <v>1</v>
+        <v>0.9674185463659147</v>
       </c>
       <c r="T119" s="8" t="n">
         <v>1</v>
@@ -10092,10 +10092,10 @@
         <v>0</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" s="8" t="n">
-        <v>0.08571428571428574</v>
+        <v>0</v>
       </c>
       <c r="K123" s="8">
         <f>(J123-I123)/I123</f>
@@ -10395,13 +10395,13 @@
         <v/>
       </c>
       <c r="H127" s="12" t="n">
-        <v>0.8579881656804733</v>
+        <v>1</v>
       </c>
       <c r="I127" s="4" t="n">
-        <v>0.8698224852071006</v>
+        <v>1</v>
       </c>
       <c r="J127" s="8" t="n">
-        <v>0.2280701754385965</v>
+        <v>1</v>
       </c>
       <c r="K127" s="8">
         <f>(J127-I127)/I127</f>
@@ -10429,13 +10429,13 @@
         <v/>
       </c>
       <c r="R127" s="12" t="n">
-        <v>1</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="S127" s="4" t="n">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="T127" s="8" t="n">
-        <v>1</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="U127" s="8">
         <f>(T127-S127)/S127</f>
@@ -10701,13 +10701,13 @@
         <v/>
       </c>
       <c r="H131" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" s="8">
         <f>(J131-I131)/I131</f>
@@ -10735,13 +10735,13 @@
         <v/>
       </c>
       <c r="R131" s="12" t="n">
-        <v>1</v>
+        <v>0.3516908212560386</v>
       </c>
       <c r="S131" s="4" t="n">
-        <v>1</v>
+        <v>0.3053140096618358</v>
       </c>
       <c r="T131" s="8" t="n">
-        <v>1</v>
+        <v>0.1120772946859904</v>
       </c>
       <c r="U131" s="8">
         <f>(T131-S131)/S131</f>
@@ -11013,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="8" t="n">
-        <v>0.3518005540166205</v>
+        <v>1</v>
       </c>
       <c r="K135" s="8">
         <f>(J135-I135)/I135</f>
@@ -11041,13 +11041,13 @@
         <v/>
       </c>
       <c r="R135" s="12" t="n">
-        <v>0.8423963133640553</v>
+        <v>0.1947565543071161</v>
       </c>
       <c r="S135" s="4" t="n">
-        <v>0.8645161290322581</v>
+        <v>0.2097378277153559</v>
       </c>
       <c r="T135" s="8" t="n">
-        <v>0.8866359447004608</v>
+        <v>0.2340823970037453</v>
       </c>
       <c r="U135" s="8">
         <f>(T135-S135)/S135</f>
@@ -11083,13 +11083,13 @@
         <v/>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2752043596730245</v>
+        <v>1</v>
       </c>
       <c r="K136" s="8">
         <f>(J136-I136)/I136</f>
@@ -11117,7 +11117,7 @@
         <v/>
       </c>
       <c r="R136" t="n">
-        <v>0.990990990990991</v>
+        <v>1</v>
       </c>
       <c r="S136" t="n">
         <v>1</v>
@@ -11319,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="J139" s="8" t="n">
-        <v>0.3594771241830066</v>
+        <v>1</v>
       </c>
       <c r="K139" s="8">
         <f>(J139-I139)/I139</f>
@@ -11347,13 +11347,13 @@
         <v/>
       </c>
       <c r="R139" s="12" t="n">
-        <v>0.828169014084507</v>
+        <v>0.3046875</v>
       </c>
       <c r="S139" s="4" t="n">
-        <v>0.8262910798122066</v>
+        <v>0.443359375</v>
       </c>
       <c r="T139" s="8" t="n">
-        <v>0.8413145539906103</v>
+        <v>0.474609375</v>
       </c>
       <c r="U139" s="8">
         <f>(T139-S139)/S139</f>
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>0.3848580441640379</v>
+        <v>1</v>
       </c>
       <c r="K140" s="8">
         <f>(J140-I140)/I140</f>
@@ -11423,13 +11423,13 @@
         <v/>
       </c>
       <c r="R140" t="n">
-        <v>0.7076566125290024</v>
+        <v>1</v>
       </c>
       <c r="S140" t="n">
-        <v>0.777262180974478</v>
+        <v>1</v>
       </c>
       <c r="T140" t="n">
-        <v>0.8097447795823666</v>
+        <v>0.9398410896708286</v>
       </c>
       <c r="U140" s="8">
         <f>(T140-S140)/S140</f>
@@ -11625,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="J143" s="8" t="n">
-        <v>0.3625304136253041</v>
+        <v>1</v>
       </c>
       <c r="K143" s="8">
         <f>(J143-I143)/I143</f>
@@ -11653,13 +11653,13 @@
         <v/>
       </c>
       <c r="R143" s="12" t="n">
-        <v>0.8291316526610645</v>
+        <v>0.5327188940092166</v>
       </c>
       <c r="S143" s="4" t="n">
-        <v>0.8141923436041083</v>
+        <v>0.5935483870967742</v>
       </c>
       <c r="T143" s="8" t="n">
-        <v>0.830999066293184</v>
+        <v>0</v>
       </c>
       <c r="U143" s="8">
         <f>(T143-S143)/S143</f>
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>0.4036939313984169</v>
+        <v>0.2606635071090048</v>
       </c>
       <c r="K144" s="8">
         <f>(J144-I144)/I144</f>
@@ -11729,13 +11729,13 @@
         <v/>
       </c>
       <c r="R144" t="n">
-        <v>0.5868814729574223</v>
+        <v>1</v>
       </c>
       <c r="S144" t="n">
-        <v>0.6536248561565017</v>
+        <v>1</v>
       </c>
       <c r="T144" t="n">
-        <v>0.6881472957422324</v>
+        <v>1</v>
       </c>
       <c r="U144" s="8">
         <f>(T144-S144)/S144</f>
@@ -11931,7 +11931,7 @@
         <v>1</v>
       </c>
       <c r="J147" s="8" t="n">
-        <v>0.3192771084337349</v>
+        <v>1</v>
       </c>
       <c r="K147" s="8">
         <f>(J147-I147)/I147</f>
@@ -11962,10 +11962,10 @@
         <v>1</v>
       </c>
       <c r="S147" s="4" t="n">
-        <v>0.9663941871026339</v>
+        <v>1</v>
       </c>
       <c r="T147" s="8" t="n">
-        <v>0.9809264305177112</v>
+        <v>1</v>
       </c>
       <c r="U147" s="8">
         <f>(T147-S147)/S147</f>
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.1825396825396826</v>
       </c>
       <c r="K148" s="8">
         <f>(J148-I148)/I148</f>
@@ -12035,13 +12035,13 @@
         <v/>
       </c>
       <c r="R148" t="n">
-        <v>0.7206385404789054</v>
+        <v>1</v>
       </c>
       <c r="S148" t="n">
-        <v>0.8164196123147093</v>
+        <v>1</v>
       </c>
       <c r="T148" t="n">
-        <v>0.8415051311288484</v>
+        <v>1</v>
       </c>
       <c r="U148" s="8">
         <f>(T148-S148)/S148</f>
@@ -12231,13 +12231,13 @@
         <v/>
       </c>
       <c r="H151" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" s="8" t="n">
-        <v>0.4167371090448013</v>
+        <v>0</v>
       </c>
       <c r="K151" s="8">
         <f>(J151-I151)/I151</f>
@@ -12265,13 +12265,13 @@
         <v/>
       </c>
       <c r="R151" s="12" t="n">
-        <v>0.7049873203719358</v>
+        <v>1</v>
       </c>
       <c r="S151" s="4" t="n">
-        <v>0.5562130177514792</v>
+        <v>1</v>
       </c>
       <c r="T151" s="8" t="n">
-        <v>0.5832628909551987</v>
+        <v>1</v>
       </c>
       <c r="U151" s="8">
         <f>(T151-S151)/S151</f>
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>0.4449152542372882</v>
+        <v>0.09090909090909094</v>
       </c>
       <c r="K152" s="8">
         <f>(J152-I152)/I152</f>
@@ -12341,13 +12341,13 @@
         <v/>
       </c>
       <c r="R152" t="n">
-        <v>0.8715415019762845</v>
+        <v>1</v>
       </c>
       <c r="S152" t="n">
-        <v>0.9387351778656127</v>
+        <v>1</v>
       </c>
       <c r="T152" t="n">
-        <v>0.9624505928853755</v>
+        <v>1</v>
       </c>
       <c r="U152" s="8">
         <f>(T152-S152)/S152</f>
@@ -12537,13 +12537,13 @@
         <v/>
       </c>
       <c r="H155" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" s="8" t="n">
-        <v>0.6833333333333333</v>
+        <v>0</v>
       </c>
       <c r="K155" s="8">
         <f>(J155-I155)/I155</f>
@@ -12571,13 +12571,13 @@
         <v/>
       </c>
       <c r="R155" s="12" t="n">
-        <v>0.4433333333333334</v>
+        <v>1</v>
       </c>
       <c r="S155" s="4" t="n">
-        <v>0.2916666666666667</v>
+        <v>1</v>
       </c>
       <c r="T155" s="8" t="n">
-        <v>0.3166666666666667</v>
+        <v>1</v>
       </c>
       <c r="U155" s="8">
         <f>(T155-S155)/S155</f>
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>0.36</v>
+        <v>0.3846153846153869</v>
       </c>
       <c r="K156" s="8">
         <f>(J156-I156)/I156</f>
@@ -12843,13 +12843,13 @@
         <v/>
       </c>
       <c r="H159" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" s="8">
         <f>(J159-I159)/I159</f>
@@ -12877,13 +12877,13 @@
         <v/>
       </c>
       <c r="R159" s="12" t="n">
-        <v>0.006546644844517169</v>
+        <v>1</v>
       </c>
       <c r="S159" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T159" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U159" s="8">
         <f>(T159-S159)/S159</f>
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.1636363636363637</v>
       </c>
       <c r="K160" s="8">
         <f>(J160-I160)/I160</f>
@@ -12953,13 +12953,13 @@
         <v/>
       </c>
       <c r="R160" t="n">
-        <v>0.1814814814814815</v>
+        <v>1</v>
       </c>
       <c r="S160" t="n">
-        <v>0.1518518518518519</v>
+        <v>1</v>
       </c>
       <c r="T160" t="n">
-        <v>0.1851851851851851</v>
+        <v>1</v>
       </c>
       <c r="U160" s="8">
         <f>(T160-S160)/S160</f>
@@ -12995,13 +12995,13 @@
         <v/>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" s="8">
         <f>(J161-I161)/I161</f>
@@ -13029,13 +13029,13 @@
         <v/>
       </c>
       <c r="R161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U161" s="8">
         <f>(T161-S161)/S161</f>
@@ -13149,13 +13149,13 @@
         <v/>
       </c>
       <c r="H163" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" s="8">
         <f>(J163-I163)/I163</f>
@@ -13183,13 +13183,13 @@
         <v/>
       </c>
       <c r="R163" s="12" t="n">
-        <v>0.2074829931972789</v>
+        <v>1</v>
       </c>
       <c r="S163" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T163" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U163" s="8">
         <f>(T163-S163)/S163</f>
@@ -13231,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.3815028901734104</v>
       </c>
       <c r="K164" s="8">
         <f>(J164-I164)/I164</f>
@@ -13259,13 +13259,13 @@
         <v/>
       </c>
       <c r="R164" t="n">
-        <v>0.4295302013422819</v>
+        <v>1</v>
       </c>
       <c r="S164" t="n">
-        <v>0.3911792905081496</v>
+        <v>1</v>
       </c>
       <c r="T164" t="n">
-        <v>0.4218600191754553</v>
+        <v>1</v>
       </c>
       <c r="U164" s="8">
         <f>(T164-S164)/S164</f>
@@ -13301,13 +13301,13 @@
         <v/>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0.5114503816793894</v>
+        <v>0</v>
       </c>
       <c r="K165" s="8">
         <f>(J165-I165)/I165</f>
@@ -13335,13 +13335,13 @@
         <v/>
       </c>
       <c r="R165" t="n">
-        <v>0.366412213740458</v>
+        <v>1</v>
       </c>
       <c r="S165" t="n">
-        <v>0.366412213740458</v>
+        <v>1</v>
       </c>
       <c r="T165" t="n">
-        <v>0.4885496183206106</v>
+        <v>1</v>
       </c>
       <c r="U165" s="8">
         <f>(T165-S165)/S165</f>

--- a/risk_indicators.xlsx
+++ b/risk_indicators.xlsx
@@ -904,10 +904,10 @@
         <v/>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1.147331546857365</v>
+        <v>0.9908069294577841</v>
       </c>
       <c r="X3" t="n">
-        <v>1.263490971854047</v>
+        <v>1.176114895843392</v>
       </c>
       <c r="Y3" s="2">
         <f>(W3-X3)/X3</f>
@@ -990,10 +990,10 @@
         <v/>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1.078822186879199</v>
+        <v>0.9215770436919087</v>
       </c>
       <c r="X4" t="n">
-        <v>1.205901382928495</v>
+        <v>1.109184290028507</v>
       </c>
       <c r="Y4" s="2">
         <f>(W4-X4)/X4</f>
@@ -1076,10 +1076,10 @@
         <v/>
       </c>
       <c r="W5" s="1" t="n">
-        <v>0.9392442546712261</v>
+        <v>1.010797866848767</v>
       </c>
       <c r="X5" t="n">
-        <v>1.103020550517574</v>
+        <v>1.242272418015155</v>
       </c>
       <c r="Y5" s="2">
         <f>(W5-X5)/X5</f>
@@ -1162,10 +1162,10 @@
         <v/>
       </c>
       <c r="W6" s="5" t="n">
-        <v>0.7029330991065131</v>
+        <v>0.6464465152908782</v>
       </c>
       <c r="X6" s="6" t="n">
-        <v>0.7141775046275405</v>
+        <v>0.6670768192115565</v>
       </c>
       <c r="Y6" s="2">
         <f>(W6-X6)/X6</f>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>0.7360637087599544</v>
+        <v>0.7298524404086266</v>
       </c>
       <c r="K15" s="8">
         <f>(J15-I15)/I15</f>
@@ -1861,13 +1861,13 @@
         <v/>
       </c>
       <c r="R15" s="12" t="n">
-        <v>0.229806598407281</v>
+        <v>0.2338251986379114</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>0.229806598407281</v>
+        <v>0.2338251986379114</v>
       </c>
       <c r="T15" s="8" t="n">
-        <v>0.2639362912400456</v>
+        <v>0.2701475595913734</v>
       </c>
       <c r="U15" s="8">
         <f>(T15-S15)/S15</f>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>0.5357873210633947</v>
+        <v>0.5788336933045357</v>
       </c>
       <c r="K19" s="8">
         <f>(J19-I19)/I19</f>
@@ -2167,13 +2167,13 @@
         <v/>
       </c>
       <c r="R19" s="12" t="n">
-        <v>0.4314928425357873</v>
+        <v>0.3844492440604752</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>0.4335378323108384</v>
+        <v>0.386609071274298</v>
       </c>
       <c r="T19" s="8" t="n">
-        <v>0.4642126789366053</v>
+        <v>0.4211663066954643</v>
       </c>
       <c r="U19" s="8">
         <f>(T19-S19)/S19</f>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8573281452658885</v>
+        <v>0.9308437067773168</v>
       </c>
       <c r="K20" s="8">
         <f>(J20-I20)/I20</f>
@@ -2243,13 +2243,13 @@
         <v/>
       </c>
       <c r="R20" t="n">
-        <v>0.1037613488975356</v>
+        <v>0.02766251728907332</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1037613488975356</v>
+        <v>0.02766251728907332</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1426718547341115</v>
+        <v>0.06915629322268324</v>
       </c>
       <c r="U20" s="8">
         <f>(T20-S20)/S20</f>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="8" t="n">
-        <v>0.6222023276633841</v>
+        <v>0.7497435897435898</v>
       </c>
       <c r="K23" s="8">
         <f>(J23-I23)/I23</f>
@@ -2473,13 +2473,13 @@
         <v/>
       </c>
       <c r="R23" s="12" t="n">
-        <v>0.2059086839749329</v>
+        <v>0.05128205128205132</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>0.350940017905103</v>
+        <v>0.2174358974358974</v>
       </c>
       <c r="T23" s="8" t="n">
-        <v>0.3777976723366159</v>
+        <v>0.2502564102564102</v>
       </c>
       <c r="U23" s="8">
         <f>(T23-S23)/S23</f>
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4905450500556173</v>
+        <v>0.629242819843342</v>
       </c>
       <c r="K24" s="8">
         <f>(J24-I24)/I24</f>
@@ -2549,13 +2549,13 @@
         <v/>
       </c>
       <c r="R24" t="n">
-        <v>0.4783092324805339</v>
+        <v>0.3394255874673628</v>
       </c>
       <c r="S24" t="n">
-        <v>0.4805339265850945</v>
+        <v>0.3420365535248042</v>
       </c>
       <c r="T24" t="n">
-        <v>0.5094549499443827</v>
+        <v>0.370757180156658</v>
       </c>
       <c r="U24" s="8">
         <f>(T24-S24)/S24</f>
@@ -2779,7 +2779,7 @@
         <v/>
       </c>
       <c r="R27" s="12" t="n">
-        <v>1</v>
+        <v>0.971201588877855</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>1</v>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4235807860262009</v>
+        <v>0.4279475982532751</v>
       </c>
       <c r="K28" s="8">
         <f>(J28-I28)/I28</f>
@@ -2855,13 +2855,13 @@
         <v/>
       </c>
       <c r="R28" t="n">
-        <v>0.9271948608137045</v>
+        <v>0.9108695652173913</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9293361884368309</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9593147751605996</v>
+        <v>0.941304347826087</v>
       </c>
       <c r="U28" s="8">
         <f>(T28-S28)/S28</f>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="8" t="n">
-        <v>0.6133209990749307</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="K31" s="8">
         <f>(J31-I31)/I31</f>
@@ -3085,13 +3085,13 @@
         <v/>
       </c>
       <c r="R31" s="12" t="n">
-        <v>0.3385753931544866</v>
+        <v>0.1181716833890747</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>0.366327474560592</v>
+        <v>0.1516164994425864</v>
       </c>
       <c r="T31" s="8" t="n">
-        <v>0.3866790009250693</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="U31" s="8">
         <f>(T31-S31)/S31</f>
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="8" t="n">
-        <v>0.4098972922502334</v>
+        <v>0.5282817502668089</v>
       </c>
       <c r="K35" s="8">
         <f>(J35-I35)/I35</f>
@@ -3391,13 +3391,13 @@
         <v/>
       </c>
       <c r="R35" s="12" t="n">
-        <v>0.5303454715219421</v>
+        <v>0.4140875133404482</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>0.5564892623716153</v>
+        <v>0.4439701173959445</v>
       </c>
       <c r="T35" s="8" t="n">
-        <v>0.5901027077497666</v>
+        <v>0.4717182497331911</v>
       </c>
       <c r="U35" s="8">
         <f>(T35-S35)/S35</f>
@@ -3697,13 +3697,13 @@
         <v/>
       </c>
       <c r="R39" s="12" t="n">
-        <v>0.1031746031746031</v>
+        <v>0.0628166160081054</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0.07341269841269837</v>
+        <v>0.03242147922998984</v>
       </c>
       <c r="T39" s="8" t="n">
-        <v>0.1051587301587301</v>
+        <v>0.0628166160081054</v>
       </c>
       <c r="U39" s="8">
         <f>(T39-S39)/S39</f>
@@ -4003,13 +4003,13 @@
         <v/>
       </c>
       <c r="R43" s="12" t="n">
-        <v>0.6897689768976898</v>
+        <v>0.5542406311637081</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>0.740924092409241</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="T43" s="8" t="n">
-        <v>0.764026402640264</v>
+        <v>0.6390532544378699</v>
       </c>
       <c r="U43" s="8">
         <f>(T43-S43)/S43</f>
@@ -4155,13 +4155,13 @@
         <v/>
       </c>
       <c r="R45" t="n">
-        <v>0.6612903225806451</v>
+        <v>0.3383084577114428</v>
       </c>
       <c r="S45" t="n">
-        <v>0.6532258064516129</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7903225806451613</v>
+        <v>0.4975124378109452</v>
       </c>
       <c r="U45" s="8">
         <f>(T45-S45)/S45</f>
@@ -4309,13 +4309,13 @@
         <v/>
       </c>
       <c r="R47" s="12" t="n">
-        <v>0.6286161063330727</v>
+        <v>0.515828677839851</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>0.653635652853792</v>
+        <v>0.5456238361266295</v>
       </c>
       <c r="T47" s="8" t="n">
-        <v>0.6724003127443315</v>
+        <v>0.5716945996275605</v>
       </c>
       <c r="U47" s="8">
         <f>(T47-S47)/S47</f>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4523809523809524</v>
+        <v>0.2781740370898717</v>
       </c>
       <c r="K48" s="8">
         <f>(J48-I48)/I48</f>
@@ -4385,13 +4385,13 @@
         <v/>
       </c>
       <c r="R48" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.8562628336755647</v>
       </c>
       <c r="S48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.864476386036961</v>
       </c>
       <c r="T48" t="n">
-        <v>0.7424812030075187</v>
+        <v>0.8993839835728953</v>
       </c>
       <c r="U48" s="8">
         <f>(T48-S48)/S48</f>
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1414634146341464</v>
+        <v>0.2513368983957219</v>
       </c>
       <c r="K49" s="8">
         <f>(J49-I49)/I49</f>
@@ -4461,13 +4461,13 @@
         <v/>
       </c>
       <c r="R49" t="n">
-        <v>0.8914728682170543</v>
+        <v>0.5742574257425742</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9689922480620154</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>0.8514851485148515</v>
       </c>
       <c r="U49" s="8">
         <f>(T49-S49)/S49</f>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="8" t="n">
-        <v>0.8581081081081081</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="K51" s="8">
         <f>(J51-I51)/I51</f>
@@ -4615,13 +4615,13 @@
         <v/>
       </c>
       <c r="R51" s="12" t="n">
-        <v>0.4125874125874126</v>
+        <v>0.3767572633552014</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>0.4458041958041958</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="T51" s="8" t="n">
-        <v>0.4755244755244755</v>
+        <v>0.4404873477038426</v>
       </c>
       <c r="U51" s="8">
         <f>(T51-S51)/S51</f>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5432098765432098</v>
+        <v>0.3082489146164978</v>
       </c>
       <c r="K52" s="8">
         <f>(J52-I52)/I52</f>
@@ -4691,13 +4691,13 @@
         <v/>
       </c>
       <c r="R52" t="n">
-        <v>0.6135629709364908</v>
+        <v>0.8294736842105264</v>
       </c>
       <c r="S52" t="n">
-        <v>0.6221743810548978</v>
+        <v>0.84</v>
       </c>
       <c r="T52" t="n">
-        <v>0.6544671689989235</v>
+        <v>0.871578947368421</v>
       </c>
       <c r="U52" s="8">
         <f>(T52-S52)/S52</f>
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2839506172839507</v>
+        <v>0.5265700483091788</v>
       </c>
       <c r="K53" s="8">
         <f>(J53-I53)/I53</f>
@@ -4767,13 +4767,13 @@
         <v/>
       </c>
       <c r="R53" t="n">
-        <v>0.4855967078189301</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="S53" t="n">
-        <v>0.5679012345679012</v>
+        <v>0.2995169082125604</v>
       </c>
       <c r="T53" t="n">
-        <v>0.7160493827160493</v>
+        <v>0.4734299516908212</v>
       </c>
       <c r="U53" s="8">
         <f>(T53-S53)/S53</f>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="8" t="n">
-        <v>1</v>
+        <v>0.8990990990990991</v>
       </c>
       <c r="K55" s="8">
         <f>(J55-I55)/I55</f>
@@ -4921,13 +4921,13 @@
         <v/>
       </c>
       <c r="R55" s="12" t="n">
-        <v>0</v>
+        <v>0.05585585585585584</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>0</v>
+        <v>0.07747747747747746</v>
       </c>
       <c r="T55" s="8" t="n">
-        <v>0</v>
+        <v>0.1009009009009009</v>
       </c>
       <c r="U55" s="8">
         <f>(T55-S55)/S55</f>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5189873417721519</v>
+        <v>1</v>
       </c>
       <c r="K56" s="8">
         <f>(J56-I56)/I56</f>
@@ -4997,13 +4997,13 @@
         <v/>
       </c>
       <c r="R56" t="n">
-        <v>0.4794188861985472</v>
+        <v>0.300990099009901</v>
       </c>
       <c r="S56" t="n">
-        <v>0.4818401937046004</v>
+        <v>0.304950495049505</v>
       </c>
       <c r="T56" t="n">
-        <v>0.5205811138014528</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="U56" s="8">
         <f>(T56-S56)/S56</f>
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="K60" s="8">
         <f>(J60-I60)/I60</f>
@@ -5303,13 +5303,13 @@
         <v/>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>0.1809851088201604</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="U60" s="8">
         <f>(T60-S60)/S60</f>
@@ -5733,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="6" t="n">
-        <v>1</v>
+        <v>0.3827160493827161</v>
       </c>
       <c r="K66" s="8">
         <f>(J66-I66)/I66</f>
@@ -5761,13 +5761,13 @@
         <v/>
       </c>
       <c r="R66" s="14" t="n">
-        <v>0</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="T66" s="6" t="n">
-        <v>0</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="U66" s="8">
         <f>(T66-S66)/S66</f>
@@ -6033,10 +6033,10 @@
         <v/>
       </c>
       <c r="H70" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="6" t="n">
         <v>0</v>
@@ -6067,10 +6067,10 @@
         <v/>
       </c>
       <c r="R70" s="14" t="n">
-        <v>0.4347826086956521</v>
+        <v>1</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>0.927536231884058</v>
+        <v>1</v>
       </c>
       <c r="T70" s="6" t="n">
         <v>1</v>
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="P72" s="8">
         <f>(O72-N72)/N72</f>
@@ -8787,13 +8787,13 @@
         <v/>
       </c>
       <c r="H106" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" s="6" t="n">
-        <v>0</v>
+        <v>0.03296703296703296</v>
       </c>
       <c r="K106" s="8">
         <f>(J106-I106)/I106</f>
@@ -8821,13 +8821,13 @@
         <v/>
       </c>
       <c r="R106" s="14" t="n">
-        <v>1</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="S106" s="5" t="n">
-        <v>1</v>
+        <v>0.5934065934065934</v>
       </c>
       <c r="T106" s="6" t="n">
-        <v>1</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="U106" s="8">
         <f>(T106-S106)/S106</f>
@@ -8899,7 +8899,7 @@
         <v/>
       </c>
       <c r="R107" s="12" t="n">
-        <v>0.266857962697274</v>
+        <v>0</v>
       </c>
       <c r="S107" s="4" t="n">
         <v>0</v>
@@ -8975,10 +8975,10 @@
         <v/>
       </c>
       <c r="R108" t="n">
-        <v>0.02635914332784184</v>
+        <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>0.2273476112026359</v>
+        <v>0</v>
       </c>
       <c r="T108" t="n">
         <v>0</v>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="5" t="n">
-        <v>0</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="J110" s="6" t="n">
         <v>0</v>
@@ -9205,10 +9205,10 @@
         <v/>
       </c>
       <c r="R111" s="12" t="n">
-        <v>0.6057142857142858</v>
+        <v>0</v>
       </c>
       <c r="S111" s="4" t="n">
-        <v>0.1971428571428572</v>
+        <v>0</v>
       </c>
       <c r="T111" s="8" t="n">
         <v>0</v>
@@ -9281,13 +9281,13 @@
         <v/>
       </c>
       <c r="R112" t="n">
-        <v>0.5054945054945055</v>
+        <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>0.7032967032967034</v>
+        <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>0.4960753532182103</v>
+        <v>0</v>
       </c>
       <c r="U112" s="8">
         <f>(T112-S112)/S112</f>
@@ -9329,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" s="8">
         <f>(J113-I113)/I113</f>
@@ -9357,13 +9357,13 @@
         <v/>
       </c>
       <c r="R113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U113" s="8">
         <f>(T113-S113)/S113</f>
@@ -9511,13 +9511,13 @@
         <v/>
       </c>
       <c r="R115" s="12" t="n">
-        <v>0.9596774193548387</v>
+        <v>0</v>
       </c>
       <c r="S115" s="4" t="n">
-        <v>0.7956989247311828</v>
+        <v>0</v>
       </c>
       <c r="T115" s="8" t="n">
-        <v>0.8306451612903226</v>
+        <v>0</v>
       </c>
       <c r="U115" s="8">
         <f>(T115-S115)/S115</f>
@@ -9553,13 +9553,13 @@
         <v/>
       </c>
       <c r="H116" t="n">
-        <v>0.9294117647058824</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" s="8">
         <f>(J116-I116)/I116</f>
@@ -9587,13 +9587,13 @@
         <v/>
       </c>
       <c r="R116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U116" s="8">
         <f>(T116-S116)/S116</f>
@@ -9629,13 +9629,13 @@
         <v/>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" s="8">
         <f>(J117-I117)/I117</f>
@@ -9652,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="O117" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="P117" s="8">
         <f>(O117-N117)/N117</f>
@@ -9663,13 +9663,13 @@
         <v/>
       </c>
       <c r="R117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U117" s="8">
         <f>(T117-S117)/S117</f>
@@ -9789,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="8" t="n">
-        <v>0.3569739952718676</v>
+        <v>1</v>
       </c>
       <c r="K119" s="8">
         <f>(J119-I119)/I119</f>
@@ -9817,13 +9817,13 @@
         <v/>
       </c>
       <c r="R119" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S119" s="4" t="n">
-        <v>0.9674185463659147</v>
+        <v>0</v>
       </c>
       <c r="T119" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U119" s="8">
         <f>(T119-S119)/S119</f>
@@ -9859,13 +9859,13 @@
         <v/>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" s="8">
         <f>(J120-I120)/I120</f>
@@ -9893,13 +9893,13 @@
         <v/>
       </c>
       <c r="R120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U120" s="8">
         <f>(T120-S120)/S120</f>
@@ -9935,13 +9935,13 @@
         <v/>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" s="8">
         <f>(J121-I121)/I121</f>
@@ -9969,13 +9969,13 @@
         <v/>
       </c>
       <c r="R121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U121" s="8">
         <f>(T121-S121)/S121</f>
@@ -10089,13 +10089,13 @@
         <v/>
       </c>
       <c r="H123" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="8">
         <f>(J123-I123)/I123</f>
@@ -10123,13 +10123,13 @@
         <v/>
       </c>
       <c r="R123" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S123" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T123" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U123" s="8">
         <f>(T123-S123)/S123</f>
@@ -10165,13 +10165,13 @@
         <v/>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="8">
         <f>(J124-I124)/I124</f>
@@ -10199,13 +10199,13 @@
         <v/>
       </c>
       <c r="R124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U124" s="8">
         <f>(T124-S124)/S124</f>
@@ -10241,13 +10241,13 @@
         <v/>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="8">
         <f>(J125-I125)/I125</f>
@@ -10275,13 +10275,13 @@
         <v/>
       </c>
       <c r="R125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U125" s="8">
         <f>(T125-S125)/S125</f>
@@ -10429,13 +10429,13 @@
         <v/>
       </c>
       <c r="R127" s="12" t="n">
-        <v>0.4285714285714286</v>
+        <v>0</v>
       </c>
       <c r="S127" s="4" t="n">
-        <v>0.4666666666666667</v>
+        <v>0</v>
       </c>
       <c r="T127" s="8" t="n">
-        <v>0.4952380952380953</v>
+        <v>0</v>
       </c>
       <c r="U127" s="8">
         <f>(T127-S127)/S127</f>
@@ -10471,13 +10471,13 @@
         <v/>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="8">
         <f>(J128-I128)/I128</f>
@@ -10505,13 +10505,13 @@
         <v/>
       </c>
       <c r="R128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U128" s="8">
         <f>(T128-S128)/S128</f>
@@ -10547,13 +10547,13 @@
         <v/>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="8">
         <f>(J129-I129)/I129</f>
@@ -10581,13 +10581,13 @@
         <v/>
       </c>
       <c r="R129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U129" s="8">
         <f>(T129-S129)/S129</f>
@@ -10623,10 +10623,10 @@
         <v/>
       </c>
       <c r="H130" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" s="6" t="n">
         <v>0</v>
@@ -10735,13 +10735,13 @@
         <v/>
       </c>
       <c r="R131" s="12" t="n">
-        <v>0.3516908212560386</v>
+        <v>0</v>
       </c>
       <c r="S131" s="4" t="n">
-        <v>0.3053140096618358</v>
+        <v>0</v>
       </c>
       <c r="T131" s="8" t="n">
-        <v>0.1120772946859904</v>
+        <v>0</v>
       </c>
       <c r="U131" s="8">
         <f>(T131-S131)/S131</f>
@@ -10777,13 +10777,13 @@
         <v/>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" s="8">
         <f>(J132-I132)/I132</f>
@@ -10811,13 +10811,13 @@
         <v/>
       </c>
       <c r="R132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U132" s="8">
         <f>(T132-S132)/S132</f>
@@ -10853,13 +10853,13 @@
         <v/>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" s="8">
         <f>(J133-I133)/I133</f>
@@ -10887,13 +10887,13 @@
         <v/>
       </c>
       <c r="R133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U133" s="8">
         <f>(T133-S133)/S133</f>
@@ -11041,13 +11041,13 @@
         <v/>
       </c>
       <c r="R135" s="12" t="n">
-        <v>0.1947565543071161</v>
+        <v>0</v>
       </c>
       <c r="S135" s="4" t="n">
-        <v>0.2097378277153559</v>
+        <v>0</v>
       </c>
       <c r="T135" s="8" t="n">
-        <v>0.2340823970037453</v>
+        <v>0</v>
       </c>
       <c r="U135" s="8">
         <f>(T135-S135)/S135</f>
@@ -11083,7 +11083,7 @@
         <v/>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -11117,13 +11117,13 @@
         <v/>
       </c>
       <c r="R136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U136" s="8">
         <f>(T136-S136)/S136</f>
@@ -11159,13 +11159,13 @@
         <v/>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" s="8">
         <f>(J137-I137)/I137</f>
@@ -11193,13 +11193,13 @@
         <v/>
       </c>
       <c r="R137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U137" s="8">
         <f>(T137-S137)/S137</f>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="5" t="n">
-        <v>0</v>
+        <v>0.05263157894736847</v>
       </c>
       <c r="J138" s="6" t="n">
         <v>0</v>
@@ -11347,13 +11347,13 @@
         <v/>
       </c>
       <c r="R139" s="12" t="n">
-        <v>0.3046875</v>
+        <v>0</v>
       </c>
       <c r="S139" s="4" t="n">
-        <v>0.443359375</v>
+        <v>0</v>
       </c>
       <c r="T139" s="8" t="n">
-        <v>0.474609375</v>
+        <v>0</v>
       </c>
       <c r="U139" s="8">
         <f>(T139-S139)/S139</f>
@@ -11423,13 +11423,13 @@
         <v/>
       </c>
       <c r="R140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>0.9398410896708286</v>
+        <v>0</v>
       </c>
       <c r="U140" s="8">
         <f>(T140-S140)/S140</f>
@@ -11465,13 +11465,13 @@
         <v/>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" s="8">
         <f>(J141-I141)/I141</f>
@@ -11488,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="O141" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="P141" s="8">
         <f>(O141-N141)/N141</f>
@@ -11499,13 +11499,13 @@
         <v/>
       </c>
       <c r="R141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U141" s="8">
         <f>(T141-S141)/S141</f>
@@ -11653,10 +11653,10 @@
         <v/>
       </c>
       <c r="R143" s="12" t="n">
-        <v>0.5327188940092166</v>
+        <v>0</v>
       </c>
       <c r="S143" s="4" t="n">
-        <v>0.5935483870967742</v>
+        <v>0</v>
       </c>
       <c r="T143" s="8" t="n">
         <v>0</v>
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>0.2606635071090048</v>
+        <v>1</v>
       </c>
       <c r="K144" s="8">
         <f>(J144-I144)/I144</f>
@@ -11729,13 +11729,13 @@
         <v/>
       </c>
       <c r="R144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U144" s="8">
         <f>(T144-S144)/S144</f>
@@ -11771,13 +11771,13 @@
         <v/>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="8">
         <f>(J145-I145)/I145</f>
@@ -11805,13 +11805,13 @@
         <v/>
       </c>
       <c r="R145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U145" s="8">
         <f>(T145-S145)/S145</f>
@@ -11847,10 +11847,10 @@
         <v/>
       </c>
       <c r="H146" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" s="6" t="n">
         <v>0</v>
@@ -11959,13 +11959,13 @@
         <v/>
       </c>
       <c r="R147" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S147" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T147" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U147" s="8">
         <f>(T147-S147)/S147</f>
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1825396825396826</v>
+        <v>1</v>
       </c>
       <c r="K148" s="8">
         <f>(J148-I148)/I148</f>
@@ -12035,13 +12035,13 @@
         <v/>
       </c>
       <c r="R148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U148" s="8">
         <f>(T148-S148)/S148</f>
@@ -12077,13 +12077,13 @@
         <v/>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" s="8">
         <f>(J149-I149)/I149</f>
@@ -12111,13 +12111,13 @@
         <v/>
       </c>
       <c r="R149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U149" s="8">
         <f>(T149-S149)/S149</f>
@@ -12153,10 +12153,10 @@
         <v/>
       </c>
       <c r="H150" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" s="6" t="n">
         <v>0</v>
@@ -12231,13 +12231,13 @@
         <v/>
       </c>
       <c r="H151" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" s="8">
         <f>(J151-I151)/I151</f>
@@ -12265,13 +12265,13 @@
         <v/>
       </c>
       <c r="R151" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S151" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T151" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U151" s="8">
         <f>(T151-S151)/S151</f>
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>0.09090909090909094</v>
+        <v>1</v>
       </c>
       <c r="K152" s="8">
         <f>(J152-I152)/I152</f>
@@ -12341,13 +12341,13 @@
         <v/>
       </c>
       <c r="R152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U152" s="8">
         <f>(T152-S152)/S152</f>
@@ -12383,13 +12383,13 @@
         <v/>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" s="8">
         <f>(J153-I153)/I153</f>
@@ -12417,13 +12417,13 @@
         <v/>
       </c>
       <c r="R153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U153" s="8">
         <f>(T153-S153)/S153</f>
@@ -12459,10 +12459,10 @@
         <v/>
       </c>
       <c r="H154" s="14" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I154" s="5" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J154" s="6" t="n">
         <v>0</v>
@@ -12537,13 +12537,13 @@
         <v/>
       </c>
       <c r="H155" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" s="8">
         <f>(J155-I155)/I155</f>
@@ -12571,13 +12571,13 @@
         <v/>
       </c>
       <c r="R155" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S155" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T155" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U155" s="8">
         <f>(T155-S155)/S155</f>
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>0.3846153846153869</v>
+        <v>1</v>
       </c>
       <c r="K156" s="8">
         <f>(J156-I156)/I156</f>
@@ -12647,13 +12647,13 @@
         <v/>
       </c>
       <c r="R156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U156" s="8">
         <f>(T156-S156)/S156</f>
@@ -12689,13 +12689,13 @@
         <v/>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" s="8">
         <f>(J157-I157)/I157</f>
@@ -12723,13 +12723,13 @@
         <v/>
       </c>
       <c r="R157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U157" s="8">
         <f>(T157-S157)/S157</f>
@@ -12765,10 +12765,10 @@
         <v/>
       </c>
       <c r="H158" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" s="6" t="n">
         <v>0</v>
@@ -12843,13 +12843,13 @@
         <v/>
       </c>
       <c r="H159" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" s="8">
         <f>(J159-I159)/I159</f>
@@ -12877,13 +12877,13 @@
         <v/>
       </c>
       <c r="R159" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S159" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T159" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U159" s="8">
         <f>(T159-S159)/S159</f>
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1636363636363637</v>
+        <v>1</v>
       </c>
       <c r="K160" s="8">
         <f>(J160-I160)/I160</f>
@@ -12953,13 +12953,13 @@
         <v/>
       </c>
       <c r="R160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U160" s="8">
         <f>(T160-S160)/S160</f>
@@ -12995,13 +12995,13 @@
         <v/>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" s="8">
         <f>(J161-I161)/I161</f>
@@ -13029,13 +13029,13 @@
         <v/>
       </c>
       <c r="R161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U161" s="8">
         <f>(T161-S161)/S161</f>
@@ -13149,13 +13149,13 @@
         <v/>
       </c>
       <c r="H163" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" s="8">
         <f>(J163-I163)/I163</f>
@@ -13183,13 +13183,13 @@
         <v/>
       </c>
       <c r="R163" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S163" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T163" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U163" s="8">
         <f>(T163-S163)/S163</f>
@@ -13231,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>0.3815028901734104</v>
+        <v>1</v>
       </c>
       <c r="K164" s="8">
         <f>(J164-I164)/I164</f>
@@ -13259,13 +13259,13 @@
         <v/>
       </c>
       <c r="R164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U164" s="8">
         <f>(T164-S164)/S164</f>
@@ -13301,13 +13301,13 @@
         <v/>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" s="8">
         <f>(J165-I165)/I165</f>
@@ -13335,13 +13335,13 @@
         <v/>
       </c>
       <c r="R165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U165" s="8">
         <f>(T165-S165)/S165</f>

--- a/risk_indicators.xlsx
+++ b/risk_indicators.xlsx
@@ -904,10 +904,10 @@
         <v/>
       </c>
       <c r="W3" s="1" t="n">
-        <v>0.9908069294577841</v>
+        <v>1.28862040021819</v>
       </c>
       <c r="X3" t="n">
-        <v>1.176114895843392</v>
+        <v>1.342105846660735</v>
       </c>
       <c r="Y3" s="2">
         <f>(W3-X3)/X3</f>
@@ -990,10 +990,10 @@
         <v/>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.9215770436919087</v>
+        <v>1.205235506715539</v>
       </c>
       <c r="X4" t="n">
-        <v>1.109184290028507</v>
+        <v>1.25700616666644</v>
       </c>
       <c r="Y4" s="2">
         <f>(W4-X4)/X4</f>
@@ -1076,10 +1076,10 @@
         <v/>
       </c>
       <c r="W5" s="1" t="n">
-        <v>1.010797866848767</v>
+        <v>1.332200104404694</v>
       </c>
       <c r="X5" t="n">
-        <v>1.242272418015155</v>
+        <v>1.301822534838731</v>
       </c>
       <c r="Y5" s="2">
         <f>(W5-X5)/X5</f>
@@ -1162,10 +1162,10 @@
         <v/>
       </c>
       <c r="W6" s="5" t="n">
-        <v>0.6464465152908782</v>
+        <v>0.6501982708457916</v>
       </c>
       <c r="X6" s="6" t="n">
-        <v>0.6670768192115565</v>
+        <v>0.6707225164655559</v>
       </c>
       <c r="Y6" s="2">
         <f>(W6-X6)/X6</f>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="K9" s="8">
         <f>(J9-I9)/I9</f>
@@ -1392,7 +1392,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="U9" s="8">
         <f>(T9-S9)/S9</f>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>0.7298524404086266</v>
+        <v>0.727891156462585</v>
       </c>
       <c r="K15" s="8">
         <f>(J15-I15)/I15</f>
@@ -1861,13 +1861,13 @@
         <v/>
       </c>
       <c r="R15" s="12" t="n">
-        <v>0.2338251986379114</v>
+        <v>0.235827664399093</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>0.2338251986379114</v>
+        <v>0.235827664399093</v>
       </c>
       <c r="T15" s="8" t="n">
-        <v>0.2701475595913734</v>
+        <v>0.272108843537415</v>
       </c>
       <c r="U15" s="8">
         <f>(T15-S15)/S15</f>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>0.5788336933045357</v>
+        <v>0.5822784810126582</v>
       </c>
       <c r="K19" s="8">
         <f>(J19-I19)/I19</f>
@@ -2167,13 +2167,13 @@
         <v/>
       </c>
       <c r="R19" s="12" t="n">
-        <v>0.3844492440604752</v>
+        <v>0.3860759493670887</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>0.386609071274298</v>
+        <v>0.3881856540084387</v>
       </c>
       <c r="T19" s="8" t="n">
-        <v>0.4211663066954643</v>
+        <v>0.4177215189873418</v>
       </c>
       <c r="U19" s="8">
         <f>(T19-S19)/S19</f>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9308437067773168</v>
+        <v>1</v>
       </c>
       <c r="K20" s="8">
         <f>(J20-I20)/I20</f>
@@ -2243,13 +2243,13 @@
         <v/>
       </c>
       <c r="R20" t="n">
-        <v>0.02766251728907332</v>
+        <v>0.0768211920529801</v>
       </c>
       <c r="S20" t="n">
-        <v>0.02766251728907332</v>
+        <v>0.0768211920529801</v>
       </c>
       <c r="T20" t="n">
-        <v>0.06915629322268324</v>
+        <v>0.1165562913907285</v>
       </c>
       <c r="U20" s="8">
         <f>(T20-S20)/S20</f>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="8" t="n">
-        <v>0.7497435897435898</v>
+        <v>1</v>
       </c>
       <c r="K23" s="8">
         <f>(J23-I23)/I23</f>
@@ -2473,13 +2473,13 @@
         <v/>
       </c>
       <c r="R23" s="12" t="n">
-        <v>0.05128205128205132</v>
+        <v>0</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>0.2174358974358974</v>
+        <v>0</v>
       </c>
       <c r="T23" s="8" t="n">
-        <v>0.2502564102564102</v>
+        <v>0</v>
       </c>
       <c r="U23" s="8">
         <f>(T23-S23)/S23</f>
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.629242819843342</v>
+        <v>1</v>
       </c>
       <c r="K24" s="8">
         <f>(J24-I24)/I24</f>
@@ -2549,13 +2549,13 @@
         <v/>
       </c>
       <c r="R24" t="n">
-        <v>0.3394255874673628</v>
+        <v>0.2638888888888888</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3420365535248042</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="T24" t="n">
-        <v>0.370757180156658</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="U24" s="8">
         <f>(T24-S24)/S24</f>
@@ -2748,10 +2748,10 @@
         <v>1</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="J27" s="8" t="n">
-        <v>0.2535612535612536</v>
+        <v>0.4292134831460674</v>
       </c>
       <c r="K27" s="8">
         <f>(J27-I27)/I27</f>
@@ -2779,10 +2779,10 @@
         <v/>
       </c>
       <c r="R27" s="12" t="n">
-        <v>0.971201588877855</v>
+        <v>0.944206008583691</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>1</v>
+        <v>0.9828326180257511</v>
       </c>
       <c r="T27" s="8" t="n">
         <v>1</v>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4279475982532751</v>
+        <v>0.4235807860262009</v>
       </c>
       <c r="K28" s="8">
         <f>(J28-I28)/I28</f>
@@ -2855,13 +2855,13 @@
         <v/>
       </c>
       <c r="R28" t="n">
-        <v>0.9108695652173913</v>
+        <v>0.848851269649335</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.8512696493349455</v>
       </c>
       <c r="T28" t="n">
-        <v>0.941304347826087</v>
+        <v>0.8899637243047158</v>
       </c>
       <c r="U28" s="8">
         <f>(T28-S28)/S28</f>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="8" t="n">
-        <v>0.8260869565217391</v>
+        <v>1</v>
       </c>
       <c r="K31" s="8">
         <f>(J31-I31)/I31</f>
@@ -3085,13 +3085,13 @@
         <v/>
       </c>
       <c r="R31" s="12" t="n">
-        <v>0.1181716833890747</v>
+        <v>0.1867219917012448</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>0.1516164994425864</v>
+        <v>0.1639004149377593</v>
       </c>
       <c r="T31" s="8" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1887966804979253</v>
       </c>
       <c r="U31" s="8">
         <f>(T31-S31)/S31</f>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2994350282485876</v>
+        <v>0.2655367231638418</v>
       </c>
       <c r="K32" s="8">
         <f>(J32-I32)/I32</f>
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="8" t="n">
-        <v>0.5282817502668089</v>
+        <v>0.6910377358490566</v>
       </c>
       <c r="K35" s="8">
         <f>(J35-I35)/I35</f>
@@ -3391,13 +3391,13 @@
         <v/>
       </c>
       <c r="R35" s="12" t="n">
-        <v>0.4140875133404482</v>
+        <v>0.2995283018867925</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>0.4439701173959445</v>
+        <v>0.2759433962264151</v>
       </c>
       <c r="T35" s="8" t="n">
-        <v>0.4717182497331911</v>
+        <v>0.3089622641509434</v>
       </c>
       <c r="U35" s="8">
         <f>(T35-S35)/S35</f>
@@ -3697,13 +3697,13 @@
         <v/>
       </c>
       <c r="R39" s="12" t="n">
-        <v>0.0628166160081054</v>
+        <v>0</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0.03242147922998984</v>
+        <v>0</v>
       </c>
       <c r="T39" s="8" t="n">
-        <v>0.0628166160081054</v>
+        <v>0</v>
       </c>
       <c r="U39" s="8">
         <f>(T39-S39)/S39</f>
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2093023255813954</v>
+        <v>1</v>
       </c>
       <c r="K41" s="8">
         <f>(J41-I41)/I41</f>
@@ -3849,7 +3849,7 @@
         <v/>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>0.9933774834437086</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="8" t="n">
-        <v>0.5095541401273885</v>
+        <v>1</v>
       </c>
       <c r="K43" s="8">
         <f>(J43-I43)/I43</f>
@@ -4003,13 +4003,13 @@
         <v/>
       </c>
       <c r="R43" s="12" t="n">
-        <v>0.5542406311637081</v>
+        <v>0.44543429844098</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.467706013363029</v>
       </c>
       <c r="T43" s="8" t="n">
-        <v>0.6390532544378699</v>
+        <v>0.4988864142538976</v>
       </c>
       <c r="U43" s="8">
         <f>(T43-S43)/S43</f>
@@ -4155,13 +4155,13 @@
         <v/>
       </c>
       <c r="R45" t="n">
-        <v>0.3383084577114428</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0.3283582089552239</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4975124378109452</v>
+        <v>0</v>
       </c>
       <c r="U45" s="8">
         <f>(T45-S45)/S45</f>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="K47" s="8">
         <f>(J47-I47)/I47</f>
@@ -4309,13 +4309,13 @@
         <v/>
       </c>
       <c r="R47" s="12" t="n">
-        <v>0.515828677839851</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>0.5456238361266295</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="T47" s="8" t="n">
-        <v>0.5716945996275605</v>
+        <v>0.2264957264957265</v>
       </c>
       <c r="U47" s="8">
         <f>(T47-S47)/S47</f>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2781740370898717</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="K48" s="8">
         <f>(J48-I48)/I48</f>
@@ -4385,13 +4385,13 @@
         <v/>
       </c>
       <c r="R48" t="n">
-        <v>0.8562628336755647</v>
+        <v>0.3268765133171914</v>
       </c>
       <c r="S48" t="n">
-        <v>0.864476386036961</v>
+        <v>0.3317191283292978</v>
       </c>
       <c r="T48" t="n">
-        <v>0.8993839835728953</v>
+        <v>0.3656174334140436</v>
       </c>
       <c r="U48" s="8">
         <f>(T48-S48)/S48</f>
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2513368983957219</v>
+        <v>0.5903614457831325</v>
       </c>
       <c r="K49" s="8">
         <f>(J49-I49)/I49</f>
@@ -4461,13 +4461,13 @@
         <v/>
       </c>
       <c r="R49" t="n">
-        <v>0.5742574257425742</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="S49" t="n">
-        <v>0.6732673267326733</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="T49" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="U49" s="8">
         <f>(T49-S49)/S49</f>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="8" t="n">
-        <v>0.9130434782608696</v>
+        <v>1</v>
       </c>
       <c r="K51" s="8">
         <f>(J51-I51)/I51</f>
@@ -4615,13 +4615,13 @@
         <v/>
       </c>
       <c r="R51" s="12" t="n">
-        <v>0.3767572633552014</v>
+        <v>0.07179487179487176</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>0.4123711340206185</v>
+        <v>0.07794871794871794</v>
       </c>
       <c r="T51" s="8" t="n">
-        <v>0.4404873477038426</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="U51" s="8">
         <f>(T51-S51)/S51</f>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3082489146164978</v>
+        <v>1</v>
       </c>
       <c r="K52" s="8">
         <f>(J52-I52)/I52</f>
@@ -4691,13 +4691,13 @@
         <v/>
       </c>
       <c r="R52" t="n">
-        <v>0.8294736842105264</v>
+        <v>0.3249701314217444</v>
       </c>
       <c r="S52" t="n">
-        <v>0.84</v>
+        <v>0.3321385902031063</v>
       </c>
       <c r="T52" t="n">
-        <v>0.871578947368421</v>
+        <v>0.3679808841099164</v>
       </c>
       <c r="U52" s="8">
         <f>(T52-S52)/S52</f>
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5265700483091788</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="K53" s="8">
         <f>(J53-I53)/I53</f>
@@ -4767,13 +4767,13 @@
         <v/>
       </c>
       <c r="R53" t="n">
-        <v>0.2028985507246377</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0.2995169082125604</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0.4734299516908212</v>
+        <v>0.0114942528735632</v>
       </c>
       <c r="U53" s="8">
         <f>(T53-S53)/S53</f>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="8" t="n">
-        <v>0.8990990990990991</v>
+        <v>1</v>
       </c>
       <c r="K55" s="8">
         <f>(J55-I55)/I55</f>
@@ -4921,13 +4921,13 @@
         <v/>
       </c>
       <c r="R55" s="12" t="n">
-        <v>0.05585585585585584</v>
+        <v>0</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>0.07747747747747746</v>
+        <v>0</v>
       </c>
       <c r="T55" s="8" t="n">
-        <v>0.1009009009009009</v>
+        <v>0</v>
       </c>
       <c r="U55" s="8">
         <f>(T55-S55)/S55</f>
@@ -4997,13 +4997,13 @@
         <v/>
       </c>
       <c r="R56" t="n">
-        <v>0.300990099009901</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0.304950495049505</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0.3366336633663367</v>
+        <v>0.004400440044004417</v>
       </c>
       <c r="U56" s="8">
         <f>(T56-S56)/S56</f>
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8051948051948052</v>
+        <v>1</v>
       </c>
       <c r="K60" s="8">
         <f>(J60-I60)/I60</f>
@@ -5303,13 +5303,13 @@
         <v/>
       </c>
       <c r="R60" t="n">
-        <v>0.1809851088201604</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>0.1855670103092784</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0.2268041237113402</v>
+        <v>0</v>
       </c>
       <c r="U60" s="8">
         <f>(T60-S60)/S60</f>
@@ -5727,13 +5727,13 @@
         <v/>
       </c>
       <c r="H66" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="6" t="n">
-        <v>0.3827160493827161</v>
+        <v>0</v>
       </c>
       <c r="K66" s="8">
         <f>(J66-I66)/I66</f>
@@ -5761,13 +5761,13 @@
         <v/>
       </c>
       <c r="R66" s="14" t="n">
-        <v>0.09876543209876543</v>
+        <v>1</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0.1975308641975309</v>
+        <v>1</v>
       </c>
       <c r="T66" s="6" t="n">
-        <v>0.6172839506172839</v>
+        <v>1</v>
       </c>
       <c r="U66" s="8">
         <f>(T66-S66)/S66</f>
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="P72" s="8">
         <f>(O72-N72)/N72</f>
@@ -6881,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="K81" s="8">
         <f>(J81-I81)/I81</f>
@@ -6912,10 +6912,10 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>0.01724137931034486</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>0.1551724137931034</v>
       </c>
       <c r="U81" s="8">
         <f>(T81-S81)/S81</f>
@@ -7187,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="K85" s="8">
         <f>(J85-I85)/I85</f>
@@ -7215,13 +7215,13 @@
         <v/>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>0.5868725868725869</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>0.6640926640926641</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>0.7876447876447876</v>
       </c>
       <c r="U85" s="8">
         <f>(T85-S85)/S85</f>
@@ -7369,13 +7369,13 @@
         <v/>
       </c>
       <c r="R87" s="12" t="n">
-        <v>0</v>
+        <v>0.2922755741127349</v>
       </c>
       <c r="S87" s="4" t="n">
-        <v>0</v>
+        <v>0.1127348643006263</v>
       </c>
       <c r="T87" s="8" t="n">
-        <v>0</v>
+        <v>0.1524008350730689</v>
       </c>
       <c r="U87" s="8">
         <f>(T87-S87)/S87</f>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K89" s="8">
         <f>(J89-I89)/I89</f>
@@ -7521,13 +7521,13 @@
         <v/>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" s="8">
         <f>(T89-S89)/S89</f>
@@ -7675,13 +7675,13 @@
         <v/>
       </c>
       <c r="R91" s="12" t="n">
-        <v>0</v>
+        <v>0.5237154150197628</v>
       </c>
       <c r="S91" s="4" t="n">
-        <v>0</v>
+        <v>0.2549407114624507</v>
       </c>
       <c r="T91" s="8" t="n">
-        <v>0</v>
+        <v>0.2806324110671936</v>
       </c>
       <c r="U91" s="8">
         <f>(T91-S91)/S91</f>
@@ -7751,13 +7751,13 @@
         <v/>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>0.1824401368301026</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>0.1231470923603193</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>0.1619156214367161</v>
       </c>
       <c r="U92" s="8">
         <f>(T92-S92)/S92</f>
@@ -7799,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0.3300492610837439</v>
       </c>
       <c r="K93" s="8">
         <f>(J93-I93)/I93</f>
@@ -7827,13 +7827,13 @@
         <v/>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U93" s="8">
         <f>(T93-S93)/S93</f>
@@ -7981,13 +7981,13 @@
         <v/>
       </c>
       <c r="R95" s="12" t="n">
-        <v>0</v>
+        <v>0.5727109515260324</v>
       </c>
       <c r="S95" s="4" t="n">
-        <v>0</v>
+        <v>0.2980251346499102</v>
       </c>
       <c r="T95" s="8" t="n">
-        <v>0</v>
+        <v>0.3339317773788151</v>
       </c>
       <c r="U95" s="8">
         <f>(T95-S95)/S95</f>
@@ -8057,13 +8057,13 @@
         <v/>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>0.7505112474437627</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>0.4642126789366053</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>0.5030674846625767</v>
       </c>
       <c r="U96" s="8">
         <f>(T96-S96)/S96</f>
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0.8385964912280701</v>
       </c>
       <c r="K97" s="8">
         <f>(J97-I97)/I97</f>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>0.04210526315789476</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>0.1614035087719299</v>
       </c>
       <c r="U97" s="8">
         <f>(T97-S97)/S97</f>
@@ -8259,7 +8259,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="8" t="n">
-        <v>1</v>
+        <v>0.4738841405508072</v>
       </c>
       <c r="K99" s="8">
         <f>(J99-I99)/I99</f>
@@ -8287,13 +8287,13 @@
         <v/>
       </c>
       <c r="R99" s="12" t="n">
-        <v>0</v>
+        <v>0.8927444794952681</v>
       </c>
       <c r="S99" s="4" t="n">
-        <v>0</v>
+        <v>0.6041009463722398</v>
       </c>
       <c r="T99" s="8" t="n">
-        <v>0</v>
+        <v>0.6246056782334385</v>
       </c>
       <c r="U99" s="8">
         <f>(T99-S99)/S99</f>
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0.4298245614035088</v>
       </c>
       <c r="K100" s="8">
         <f>(J100-I100)/I100</f>
@@ -8363,13 +8363,13 @@
         <v/>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U100" s="8">
         <f>(T100-S100)/S100</f>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0.4384858044164038</v>
       </c>
       <c r="K101" s="8">
         <f>(J101-I101)/I101</f>
@@ -8439,13 +8439,13 @@
         <v/>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>0.3785488958990536</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>0.4542586750788644</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>0.5615141955835962</v>
       </c>
       <c r="U101" s="8">
         <f>(T101-S101)/S101</f>
@@ -8565,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="8" t="n">
-        <v>1</v>
+        <v>0.484375</v>
       </c>
       <c r="K103" s="8">
         <f>(J103-I103)/I103</f>
@@ -8593,13 +8593,13 @@
         <v/>
       </c>
       <c r="R103" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S103" s="4" t="n">
-        <v>0</v>
+        <v>0.6297739672642245</v>
       </c>
       <c r="T103" s="8" t="n">
-        <v>0</v>
+        <v>0.646921278254092</v>
       </c>
       <c r="U103" s="8">
         <f>(T103-S103)/S103</f>
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>0.4369501466275659</v>
       </c>
       <c r="K104" s="8">
         <f>(J104-I104)/I104</f>
@@ -8669,13 +8669,13 @@
         <v/>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U104" s="8">
         <f>(T104-S104)/S104</f>
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="K105" s="8">
         <f>(J105-I105)/I105</f>
@@ -8745,13 +8745,13 @@
         <v/>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U105" s="8">
         <f>(T105-S105)/S105</f>
@@ -8787,13 +8787,13 @@
         <v/>
       </c>
       <c r="H106" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" s="6" t="n">
-        <v>0.03296703296703296</v>
+        <v>0</v>
       </c>
       <c r="K106" s="8">
         <f>(J106-I106)/I106</f>
@@ -8821,13 +8821,13 @@
         <v/>
       </c>
       <c r="R106" s="14" t="n">
-        <v>0.5054945054945055</v>
+        <v>1</v>
       </c>
       <c r="S106" s="5" t="n">
-        <v>0.5934065934065934</v>
+        <v>1</v>
       </c>
       <c r="T106" s="6" t="n">
-        <v>0.967032967032967</v>
+        <v>1</v>
       </c>
       <c r="U106" s="8">
         <f>(T106-S106)/S106</f>
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="8" t="n">
-        <v>1</v>
+        <v>0.4761376248612652</v>
       </c>
       <c r="K107" s="8">
         <f>(J107-I107)/I107</f>
@@ -8899,13 +8899,13 @@
         <v/>
       </c>
       <c r="R107" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S107" s="4" t="n">
-        <v>0</v>
+        <v>0.7341964965727342</v>
       </c>
       <c r="T107" s="8" t="n">
-        <v>0</v>
+        <v>0.7524752475247525</v>
       </c>
       <c r="U107" s="8">
         <f>(T107-S107)/S107</f>
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>0.4334470989761092</v>
       </c>
       <c r="K108" s="8">
         <f>(J108-I108)/I108</f>
@@ -8975,13 +8975,13 @@
         <v/>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U108" s="8">
         <f>(T108-S108)/S108</f>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="5" t="n">
-        <v>0.8571428571428572</v>
+        <v>0</v>
       </c>
       <c r="J110" s="6" t="n">
         <v>0</v>
@@ -9177,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="8" t="n">
-        <v>1</v>
+        <v>0.4727272727272728</v>
       </c>
       <c r="K111" s="8">
         <f>(J111-I111)/I111</f>
@@ -9205,13 +9205,13 @@
         <v/>
       </c>
       <c r="R111" s="12" t="n">
-        <v>0</v>
+        <v>0.8043117744610282</v>
       </c>
       <c r="S111" s="4" t="n">
-        <v>0</v>
+        <v>0.6135986733001658</v>
       </c>
       <c r="T111" s="8" t="n">
-        <v>0</v>
+        <v>0.6384742951907131</v>
       </c>
       <c r="U111" s="8">
         <f>(T111-S111)/S111</f>
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0.4657142857142857</v>
       </c>
       <c r="K112" s="8">
         <f>(J112-I112)/I112</f>
@@ -9281,13 +9281,13 @@
         <v/>
       </c>
       <c r="R112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S112" t="n">
-        <v>0</v>
+        <v>0.7437092264678472</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>0.7698042870456664</v>
       </c>
       <c r="U112" s="8">
         <f>(T112-S112)/S112</f>
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="8" t="n">
-        <v>1</v>
+        <v>0.4607508532423208</v>
       </c>
       <c r="K115" s="8">
         <f>(J115-I115)/I115</f>
@@ -9511,13 +9511,13 @@
         <v/>
       </c>
       <c r="R115" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115" s="4" t="n">
-        <v>0</v>
+        <v>0.8485370051635112</v>
       </c>
       <c r="T115" s="8" t="n">
-        <v>0</v>
+        <v>0.8691910499139415</v>
       </c>
       <c r="U115" s="8">
         <f>(T115-S115)/S115</f>
@@ -9553,13 +9553,13 @@
         <v/>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="K116" s="8">
         <f>(J116-I116)/I116</f>
@@ -9587,13 +9587,13 @@
         <v/>
       </c>
       <c r="R116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116" s="8">
         <f>(T116-S116)/S116</f>
@@ -9652,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="O117" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="P117" s="8">
         <f>(O117-N117)/N117</f>
@@ -9663,7 +9663,7 @@
         <v/>
       </c>
       <c r="R117" t="n">
-        <v>0</v>
+        <v>0.277056277056277</v>
       </c>
       <c r="S117" t="n">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="8">
         <f>(J119-I119)/I119</f>
@@ -9817,13 +9817,13 @@
         <v/>
       </c>
       <c r="R119" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T119" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U119" s="8">
         <f>(T119-S119)/S119</f>
@@ -9859,13 +9859,13 @@
         <v/>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="8">
         <f>(J120-I120)/I120</f>
@@ -9893,13 +9893,13 @@
         <v/>
       </c>
       <c r="R120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U120" s="8">
         <f>(T120-S120)/S120</f>
@@ -9941,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="K121" s="8">
         <f>(J121-I121)/I121</f>
@@ -9969,13 +9969,13 @@
         <v/>
       </c>
       <c r="R121" t="n">
-        <v>0</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U121" s="8">
         <f>(T121-S121)/S121</f>
@@ -10123,13 +10123,13 @@
         <v/>
       </c>
       <c r="R123" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S123" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U123" s="8">
         <f>(T123-S123)/S123</f>
@@ -10168,10 +10168,10 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="8">
         <f>(J124-I124)/I124</f>
@@ -10199,13 +10199,13 @@
         <v/>
       </c>
       <c r="R124" t="n">
-        <v>0</v>
+        <v>0.7696267696267697</v>
       </c>
       <c r="S124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U124" s="8">
         <f>(T124-S124)/S124</f>
@@ -10241,13 +10241,13 @@
         <v/>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="8">
         <f>(J125-I125)/I125</f>
@@ -10275,13 +10275,13 @@
         <v/>
       </c>
       <c r="R125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U125" s="8">
         <f>(T125-S125)/S125</f>
@@ -10401,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="J127" s="8" t="n">
-        <v>1</v>
+        <v>0.4106280193236715</v>
       </c>
       <c r="K127" s="8">
         <f>(J127-I127)/I127</f>
@@ -10432,10 +10432,10 @@
         <v>0</v>
       </c>
       <c r="S127" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U127" s="8">
         <f>(T127-S127)/S127</f>
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="K128" s="8">
         <f>(J128-I128)/I128</f>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>0</v>
+        <v>0.5158831003811944</v>
       </c>
       <c r="T128" t="n">
-        <v>0</v>
+        <v>0.554002541296061</v>
       </c>
       <c r="U128" s="8">
         <f>(T128-S128)/S128</f>
@@ -10550,10 +10550,10 @@
         <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="8">
         <f>(J129-I129)/I129</f>
@@ -10584,10 +10584,10 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U129" s="8">
         <f>(T129-S129)/S129</f>
@@ -10623,10 +10623,10 @@
         <v/>
       </c>
       <c r="H130" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="6" t="n">
         <v>0</v>
@@ -10704,10 +10704,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="4" t="n">
-        <v>1</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="J131" s="8" t="n">
-        <v>1</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="K131" s="8">
         <f>(J131-I131)/I131</f>
@@ -10738,10 +10738,10 @@
         <v>0</v>
       </c>
       <c r="S131" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T131" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U131" s="8">
         <f>(T131-S131)/S131</f>
@@ -10814,10 +10814,10 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>0</v>
+        <v>0.3844961240310077</v>
       </c>
       <c r="T132" t="n">
-        <v>0</v>
+        <v>0.4248062015503876</v>
       </c>
       <c r="U132" s="8">
         <f>(T132-S132)/S132</f>
@@ -10856,10 +10856,10 @@
         <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" s="8">
         <f>(J133-I133)/I133</f>
@@ -10890,10 +10890,10 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U133" s="8">
         <f>(T133-S133)/S133</f>
@@ -11044,10 +11044,10 @@
         <v>0</v>
       </c>
       <c r="S135" s="4" t="n">
-        <v>0</v>
+        <v>0.3542857142857143</v>
       </c>
       <c r="T135" s="8" t="n">
-        <v>0</v>
+        <v>0.3908571428571428</v>
       </c>
       <c r="U135" s="8">
         <f>(T135-S135)/S135</f>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="K137" s="8">
         <f>(J137-I137)/I137</f>
@@ -11196,10 +11196,10 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U137" s="8">
         <f>(T137-S137)/S137</f>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="5" t="n">
-        <v>0.05263157894736847</v>
+        <v>0</v>
       </c>
       <c r="J138" s="6" t="n">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="O141" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="P141" s="8">
         <f>(O141-N141)/N141</f>
@@ -11847,10 +11847,10 @@
         <v/>
       </c>
       <c r="H146" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" s="6" t="n">
         <v>0</v>
@@ -12153,10 +12153,10 @@
         <v/>
       </c>
       <c r="H150" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" s="6" t="n">
         <v>0</v>
@@ -12459,10 +12459,10 @@
         <v/>
       </c>
       <c r="H154" s="14" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="I154" s="5" t="n">
-        <v>0.3333333333333334</v>
+        <v>0</v>
       </c>
       <c r="J154" s="6" t="n">
         <v>0</v>
@@ -12765,10 +12765,10 @@
         <v/>
       </c>
       <c r="H158" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" s="6" t="n">
         <v>0</v>
@@ -13335,7 +13335,7 @@
         <v/>
       </c>
       <c r="R165" t="n">
-        <v>0</v>
+        <v>0.4757281553398058</v>
       </c>
       <c r="S165" t="n">
         <v>0</v>
